--- a/data.xlsx
+++ b/data.xlsx
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5">
-        <f>SUM(D2:L2)</f>
+        <f t="shared" ref="M2:M8" si="0">SUM(D2:L2)</f>
         <v>2</v>
       </c>
       <c r="N2" s="2" t="str">
@@ -577,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="8">
-        <f>SUM(D3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="8">
-        <f>SUM(D4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="12">
-        <f>SUM(D5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
-        <f>SUM(D6:L6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N6" s="2" t="str">
@@ -661,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="8">
-        <f>SUM(D7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="8">
-        <f>SUM(D8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4489,25 +4489,25 @@
         <v>13</v>
       </c>
       <c r="D146" s="5">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="E146" s="5">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="F146" s="5">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="G146" s="5">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H146" s="5">
-        <v>1378</v>
+        <v>1399</v>
       </c>
       <c r="I146" s="5">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="J146" s="5">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K146" s="5">
         <v>87</v>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="M146" s="5">
         <f>SUM(D146:L146)</f>
-        <v>5477</v>
+        <v>5549</v>
       </c>
       <c r="N146" s="2" t="str">
         <f>IF(SUM(D146:L146)=M146,"gleich","ungleich")</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>tests</t>
+  </si>
+  <si>
+    <t>Chek</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -484,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,34 +524,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -550,15 +571,14 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5">
-        <f t="shared" ref="M2:M8" si="0">SUM(D2:L2)</f>
         <v>2</v>
       </c>
       <c r="N2" s="2" t="str">
@@ -577,8 +597,11 @@
         <v>14</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f>IF(SUM(D3:L3)=M3,"gleich","ungleich")</f>
+        <v>gleich</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -592,8 +615,11 @@
         <v>15</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IF(SUM(D4:L4)=M4,"gleich","ungleich")</f>
+        <v>gleich</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -616,7 +642,6 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -634,19 +659,18 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>IF(SUM(D6:L6)=M6,"gleich","ungleich")</f>
+        <f t="shared" ref="N6:N8" si="0">IF(SUM(D6:L6)=M6,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -661,8 +685,11 @@
         <v>14</v>
       </c>
       <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>gleich</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -676,8 +703,11 @@
         <v>15</v>
       </c>
       <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>gleich</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -715,23 +745,22 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
       <c r="M10" s="5">
-        <f>SUM(D10:L10)</f>
         <v>3</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>IF(SUM(D10:L10)=M10,"gleich","ungleich")</f>
+        <f t="shared" ref="N10:N12" si="1">IF(SUM(D10:L10)=M10,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -746,8 +775,11 @@
         <v>14</v>
       </c>
       <c r="M11" s="8">
-        <f>SUM(D11:L11)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -761,8 +793,11 @@
         <v>15</v>
       </c>
       <c r="M12" s="8">
-        <f>SUM(D12:L12)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -800,23 +835,22 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
       <c r="M14" s="5">
-        <f>SUM(D14:L14)</f>
         <v>6</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>IF(SUM(D14:L14)=M14,"gleich","ungleich")</f>
+        <f t="shared" ref="N14:N16" si="2">IF(SUM(D14:L14)=M14,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -831,8 +865,11 @@
         <v>14</v>
       </c>
       <c r="M15" s="8">
-        <f>SUM(D15:L15)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -846,8 +883,11 @@
         <v>15</v>
       </c>
       <c r="M16" s="8">
-        <f>SUM(D16:L16)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -888,24 +928,24 @@
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <f>E14</f>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f>F14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
         <f>G14</f>
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="5">
         <f>K14</f>
@@ -913,14 +953,13 @@
       </c>
       <c r="L18" s="5">
         <f>L14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5">
-        <f>SUM(D18:L18)</f>
         <v>10</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f>IF(SUM(D18:L18)=M18,"gleich","ungleich")</f>
+        <f t="shared" ref="N18:N20" si="3">IF(SUM(D18:L18)=M18,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -935,8 +974,11 @@
         <v>14</v>
       </c>
       <c r="M19" s="8">
-        <f>SUM(D19:L19)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -950,8 +992,11 @@
         <v>15</v>
       </c>
       <c r="M20" s="8">
-        <f>SUM(D20:L20)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -992,40 +1037,39 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <f>E18</f>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5">
         <f>G18</f>
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>2</v>
+        <f>H18</f>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <f>I18</f>
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <f>J18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="5">
         <f>K18</f>
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <f>L18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M22" s="5">
-        <f>SUM(D22:L22)</f>
         <v>14</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f>IF(SUM(D22:L22)=M22,"gleich","ungleich")</f>
+        <f t="shared" ref="N22:N24" si="4">IF(SUM(D22:L22)=M22,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1040,8 +1084,11 @@
         <v>14</v>
       </c>
       <c r="M23" s="8">
-        <f>SUM(D23:L23)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1055,8 +1102,11 @@
         <v>15</v>
       </c>
       <c r="M24" s="8">
-        <f>SUM(D24:L24)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1097,10 +1147,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="5">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <v>3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>9</v>
       </c>
       <c r="G26" s="5">
         <f>G22</f>
@@ -1120,15 +1171,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <f>L22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M26" s="5">
-        <f>SUM(D26:L26)</f>
         <v>18</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f>IF(SUM(D26:L26)=M26,"gleich","ungleich")</f>
+        <f t="shared" ref="N26:N28" si="5">IF(SUM(D26:L26)=M26,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1143,8 +1192,11 @@
         <v>14</v>
       </c>
       <c r="M27" s="8">
-        <f>SUM(D27:L27)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1158,8 +1210,11 @@
         <v>15</v>
       </c>
       <c r="M28" s="8">
-        <f>SUM(D28:L28)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1199,35 +1254,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
         <v>3</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <v>11</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
       <c r="M30" s="5">
-        <f>SUM(D30:L30)</f>
         <v>21</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f>IF(SUM(D30:L30)=M30,"gleich","ungleich")</f>
+        <f t="shared" ref="N30:N32" si="6">IF(SUM(D30:L30)=M30,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1242,8 +1296,11 @@
         <v>14</v>
       </c>
       <c r="M31" s="8">
-        <f>SUM(D31:L31)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1257,8 +1314,11 @@
         <v>15</v>
       </c>
       <c r="M32" s="8">
-        <f>SUM(D32:L32)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,40 +1355,39 @@
         <v>13</v>
       </c>
       <c r="D34" s="5">
+        <f>D30</f>
         <v>0</v>
       </c>
       <c r="E34" s="5">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
         <v>5</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>4</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
         <v>15</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>3</v>
-      </c>
-      <c r="J34" s="5">
-        <v>4</v>
-      </c>
-      <c r="K34" s="5">
-        <f>K30</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <f>L30</f>
-        <v>0</v>
-      </c>
       <c r="M34" s="5">
-        <f>SUM(D34:L34)</f>
         <v>27</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f>IF(SUM(D34:L34)=M34,"gleich","ungleich")</f>
+        <f t="shared" ref="N34:N36" si="7">IF(SUM(D34:L34)=M34,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1342,12 +1401,15 @@
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
         <v>2</v>
       </c>
       <c r="M35" s="8">
-        <f>SUM(D35:L35)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -1361,8 +1423,11 @@
         <v>15</v>
       </c>
       <c r="M36" s="8">
-        <f>SUM(D36:L36)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -1402,35 +1467,34 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
         <v>13</v>
       </c>
-      <c r="F38" s="5">
-        <v>16</v>
-      </c>
       <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="5">
         <v>4</v>
       </c>
       <c r="J38" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5">
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M38" s="5">
-        <f>SUM(D38:L38)</f>
         <v>39</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f>IF(SUM(D38:L38)=M38,"gleich","ungleich")</f>
+        <f t="shared" ref="N38:N40" si="8">IF(SUM(D38:L38)=M38,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1444,12 +1508,15 @@
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <v>2</v>
       </c>
       <c r="M39" s="8">
-        <f>SUM(D39:L39)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -1463,8 +1530,11 @@
         <v>15</v>
       </c>
       <c r="M40" s="8">
-        <f>SUM(D40:L40)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,38 +1571,37 @@
         <v>13</v>
       </c>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
         <v>15</v>
       </c>
-      <c r="F42" s="5">
-        <v>23</v>
-      </c>
       <c r="G42" s="5">
         <v>1</v>
       </c>
       <c r="H42" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I42" s="5">
         <v>5</v>
       </c>
       <c r="J42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M42" s="5">
-        <f>SUM(D42:L42)</f>
         <v>53</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f>IF(SUM(D42:L42)=M42,"gleich","ungleich")</f>
+        <f t="shared" ref="N42:N44" si="9">IF(SUM(D42:L42)=M42,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1546,12 +1615,15 @@
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="1">
+      <c r="J43" s="1">
         <v>2</v>
       </c>
       <c r="M43" s="8">
-        <f>SUM(D43:L43)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -1565,8 +1637,11 @@
         <v>15</v>
       </c>
       <c r="M44" s="8">
-        <f>SUM(D44:L44)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -1606,35 +1681,34 @@
         <v>4</v>
       </c>
       <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
         <v>23</v>
       </c>
-      <c r="F46" s="5">
-        <v>28</v>
-      </c>
       <c r="G46" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="5">
         <v>5</v>
       </c>
       <c r="I46" s="5">
+        <v>6</v>
+      </c>
+      <c r="J46" s="5">
         <v>5</v>
       </c>
-      <c r="J46" s="5">
-        <v>6</v>
-      </c>
       <c r="K46" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M46" s="5">
-        <f>SUM(D46:L46)</f>
         <v>77</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f>IF(SUM(D46:L46)=M46,"gleich","ungleich")</f>
+        <f t="shared" ref="N46:N48" si="10">IF(SUM(D46:L46)=M46,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1648,12 +1722,15 @@
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J47" s="1">
         <v>2</v>
       </c>
       <c r="M47" s="8">
-        <f>SUM(D47:L47)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -1667,8 +1744,11 @@
         <v>15</v>
       </c>
       <c r="M48" s="8">
-        <f>SUM(D48:L48)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -1705,38 +1785,37 @@
         <v>13</v>
       </c>
       <c r="D50" s="5">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>31</v>
+      </c>
+      <c r="G50" s="5">
         <v>7</v>
       </c>
-      <c r="E50" s="5">
-        <v>31</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="H50" s="5">
+        <v>8</v>
+      </c>
+      <c r="I50" s="5">
+        <v>10</v>
+      </c>
+      <c r="J50" s="5">
+        <v>6</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
         <v>32</v>
       </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5">
-        <v>6</v>
-      </c>
-      <c r="I50" s="5">
-        <v>8</v>
-      </c>
-      <c r="J50" s="5">
-        <v>10</v>
-      </c>
-      <c r="K50" s="5">
-        <v>4</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
       <c r="M50" s="5">
-        <f>SUM(D50:L50)</f>
         <v>100</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f>IF(SUM(D50:L50)=M50,"gleich","ungleich")</f>
+        <f t="shared" ref="N50:N52" si="11">IF(SUM(D50:L50)=M50,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1750,12 +1829,15 @@
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="1">
+      <c r="J51" s="1">
         <v>2</v>
       </c>
       <c r="M51" s="8">
-        <f>SUM(D51:L51)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -1769,8 +1851,11 @@
         <v>15</v>
       </c>
       <c r="M52" s="8">
-        <f>SUM(D52:L52)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -1807,38 +1892,37 @@
         <v>13</v>
       </c>
       <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>36</v>
+      </c>
+      <c r="G54" s="5">
         <v>11</v>
       </c>
-      <c r="E54" s="5">
-        <v>36</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="H54" s="5">
+        <v>9</v>
+      </c>
+      <c r="I54" s="5">
+        <v>16</v>
+      </c>
+      <c r="J54" s="5">
+        <v>23</v>
+      </c>
+      <c r="K54" s="5">
+        <v>3</v>
+      </c>
+      <c r="L54" s="5">
         <v>35</v>
       </c>
-      <c r="G54" s="5">
-        <v>3</v>
-      </c>
-      <c r="H54" s="5">
-        <v>23</v>
-      </c>
-      <c r="I54" s="5">
-        <v>9</v>
-      </c>
-      <c r="J54" s="5">
-        <v>16</v>
-      </c>
-      <c r="K54" s="5">
-        <v>4</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1</v>
-      </c>
       <c r="M54" s="5">
-        <f>SUM(D54:L54)</f>
         <v>138</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f>IF(SUM(D54:L54)=M54,"gleich","ungleich")</f>
+        <f t="shared" ref="N54:N56" si="12">IF(SUM(D54:L54)=M54,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1852,12 +1936,15 @@
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="1">
+      <c r="J55" s="1">
         <v>2</v>
       </c>
       <c r="M55" s="8">
-        <f>SUM(D55:L55)</f>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -1871,8 +1958,11 @@
         <v>15</v>
       </c>
       <c r="M56" s="8">
-        <f>SUM(D56:L56)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -1909,38 +1999,37 @@
         <v>13</v>
       </c>
       <c r="D58" s="5">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>40</v>
+      </c>
+      <c r="G58" s="5">
         <v>22</v>
       </c>
-      <c r="E58" s="5">
-        <v>40</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="H58" s="5">
+        <v>12</v>
+      </c>
+      <c r="I58" s="5">
+        <v>17</v>
+      </c>
+      <c r="J58" s="5">
+        <v>30</v>
+      </c>
+      <c r="K58" s="5">
+        <v>11</v>
+      </c>
+      <c r="L58" s="5">
         <v>41</v>
       </c>
-      <c r="G58" s="5">
-        <v>11</v>
-      </c>
-      <c r="H58" s="5">
-        <v>30</v>
-      </c>
-      <c r="I58" s="5">
-        <v>12</v>
-      </c>
-      <c r="J58" s="5">
-        <v>17</v>
-      </c>
-      <c r="K58" s="5">
-        <v>4</v>
-      </c>
-      <c r="L58" s="5">
-        <v>1</v>
-      </c>
       <c r="M58" s="5">
-        <f>SUM(D58:L58)</f>
         <v>178</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f>IF(SUM(D58:L58)=M58,"gleich","ungleich")</f>
+        <f t="shared" ref="N58:N60" si="13">IF(SUM(D58:L58)=M58,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -1954,15 +2043,18 @@
       <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="1">
-        <v>2</v>
-      </c>
-      <c r="H59" s="1">
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
         <v>2</v>
       </c>
       <c r="M59" s="8">
-        <f>SUM(D59:L59)</f>
         <v>4</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -1976,8 +2068,11 @@
         <v>15</v>
       </c>
       <c r="M60" s="8">
-        <f>SUM(D60:L60)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -2014,38 +2109,37 @@
         <v>13</v>
       </c>
       <c r="D62" s="5">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5">
+        <v>45</v>
+      </c>
+      <c r="G62" s="5">
         <v>35</v>
       </c>
-      <c r="E62" s="5">
-        <v>45</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="H62" s="5">
+        <v>14</v>
+      </c>
+      <c r="I62" s="5">
+        <v>25</v>
+      </c>
+      <c r="J62" s="5">
+        <v>55</v>
+      </c>
+      <c r="K62" s="5">
+        <v>13</v>
+      </c>
+      <c r="L62" s="5">
         <v>48</v>
       </c>
-      <c r="G62" s="5">
-        <v>13</v>
-      </c>
-      <c r="H62" s="5">
-        <v>55</v>
-      </c>
-      <c r="I62" s="5">
-        <v>14</v>
-      </c>
-      <c r="J62" s="5">
-        <v>25</v>
-      </c>
-      <c r="K62" s="5">
-        <v>4</v>
-      </c>
-      <c r="L62" s="5">
-        <v>3</v>
-      </c>
       <c r="M62" s="5">
-        <f>SUM(D62:L62)</f>
         <v>242</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f>IF(SUM(D62:L62)=M62,"gleich","ungleich")</f>
+        <f t="shared" ref="N62:N64" si="14">IF(SUM(D62:L62)=M62,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2059,15 +2153,18 @@
       <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
         <v>2</v>
       </c>
       <c r="M63" s="8">
-        <f>SUM(D63:L63)</f>
         <v>4</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -2081,8 +2178,11 @@
         <v>15</v>
       </c>
       <c r="M64" s="8">
-        <f>SUM(D64:L64)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -2119,38 +2219,37 @@
         <v>13</v>
       </c>
       <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>51</v>
+      </c>
+      <c r="G66" s="5">
         <v>58</v>
       </c>
-      <c r="E66" s="5">
-        <v>51</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="H66" s="5">
+        <v>19</v>
+      </c>
+      <c r="I66" s="5">
+        <v>33</v>
+      </c>
+      <c r="J66" s="5">
+        <v>107</v>
+      </c>
+      <c r="K66" s="5">
+        <v>16</v>
+      </c>
+      <c r="L66" s="5">
         <v>63</v>
       </c>
-      <c r="G66" s="5">
-        <v>16</v>
-      </c>
-      <c r="H66" s="5">
-        <v>107</v>
-      </c>
-      <c r="I66" s="5">
-        <v>19</v>
-      </c>
-      <c r="J66" s="5">
-        <v>33</v>
-      </c>
-      <c r="K66" s="5">
-        <v>6</v>
-      </c>
-      <c r="L66" s="5">
-        <v>3</v>
-      </c>
       <c r="M66" s="5">
-        <f>SUM(D66:L66)</f>
         <v>356</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f>IF(SUM(D66:L66)=M66,"gleich","ungleich")</f>
+        <f t="shared" ref="N66:N68" si="15">IF(SUM(D66:L66)=M66,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2164,15 +2263,18 @@
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="1">
-        <v>2</v>
-      </c>
-      <c r="H67" s="1">
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
         <v>2</v>
       </c>
       <c r="M67" s="8">
-        <f>SUM(D67:L67)</f>
         <v>4</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -2185,12 +2287,15 @@
       <c r="C68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="1">
+      <c r="L68" s="1">
         <v>1</v>
       </c>
       <c r="M68" s="8">
-        <f>SUM(D68:L68)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2227,38 +2332,37 @@
         <v>13</v>
       </c>
       <c r="D70" s="5">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5">
+        <v>62</v>
+      </c>
+      <c r="G70" s="5">
         <v>84</v>
       </c>
-      <c r="E70" s="5">
-        <v>62</v>
-      </c>
-      <c r="F70" s="5">
+      <c r="H70" s="5">
+        <v>23</v>
+      </c>
+      <c r="I70" s="5">
+        <v>52</v>
+      </c>
+      <c r="J70" s="5">
+        <v>165</v>
+      </c>
+      <c r="K70" s="5">
+        <v>22</v>
+      </c>
+      <c r="L70" s="5">
         <v>78</v>
       </c>
-      <c r="G70" s="5">
-        <v>22</v>
-      </c>
-      <c r="H70" s="5">
-        <v>165</v>
-      </c>
-      <c r="I70" s="5">
-        <v>23</v>
-      </c>
-      <c r="J70" s="5">
-        <v>52</v>
-      </c>
-      <c r="K70" s="5">
-        <v>7</v>
-      </c>
-      <c r="L70" s="5">
-        <v>4</v>
-      </c>
       <c r="M70" s="5">
-        <f>SUM(D70:L70)</f>
         <v>497</v>
       </c>
       <c r="N70" s="2" t="str">
-        <f>IF(SUM(D70:L70)=M70,"gleich","ungleich")</f>
+        <f t="shared" ref="N70:N72" si="16">IF(SUM(D70:L70)=M70,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2272,18 +2376,21 @@
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
       <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
         <v>3</v>
       </c>
-      <c r="H71" s="1">
-        <v>2</v>
-      </c>
       <c r="M71" s="8">
-        <f>SUM(D71:L71)</f>
         <v>6</v>
+      </c>
+      <c r="N71" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -2296,12 +2403,15 @@
       <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="1">
+      <c r="L72" s="1">
         <v>1</v>
       </c>
       <c r="M72" s="8">
-        <f>SUM(D72:L72)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N72" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,38 +2448,37 @@
         <v>13</v>
       </c>
       <c r="D74" s="5">
+        <v>10</v>
+      </c>
+      <c r="E74" s="5">
+        <v>5</v>
+      </c>
+      <c r="F74" s="5">
+        <v>81</v>
+      </c>
+      <c r="G74" s="5">
         <v>116</v>
       </c>
-      <c r="E74" s="5">
-        <v>81</v>
-      </c>
-      <c r="F74" s="5">
+      <c r="H74" s="5">
+        <v>30</v>
+      </c>
+      <c r="I74" s="5">
+        <v>71</v>
+      </c>
+      <c r="J74" s="5">
+        <v>204</v>
+      </c>
+      <c r="K74" s="5">
+        <v>34</v>
+      </c>
+      <c r="L74" s="5">
         <v>97</v>
       </c>
-      <c r="G74" s="5">
-        <v>34</v>
-      </c>
-      <c r="H74" s="5">
-        <v>204</v>
-      </c>
-      <c r="I74" s="5">
-        <v>30</v>
-      </c>
-      <c r="J74" s="5">
-        <v>71</v>
-      </c>
-      <c r="K74" s="5">
-        <v>10</v>
-      </c>
-      <c r="L74" s="5">
-        <v>5</v>
-      </c>
       <c r="M74" s="5">
-        <f>SUM(D74:L74)</f>
         <v>648</v>
       </c>
       <c r="N74" s="2" t="str">
-        <f>IF(SUM(D74:L74)=M74,"gleich","ungleich")</f>
+        <f t="shared" ref="N74:N76" si="17">IF(SUM(D74:L74)=M74,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2383,18 +2492,21 @@
       <c r="C75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
       <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
         <v>3</v>
       </c>
-      <c r="H75" s="1">
-        <v>2</v>
-      </c>
       <c r="M75" s="8">
-        <f>SUM(D75:L75)</f>
         <v>6</v>
+      </c>
+      <c r="N75" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -2407,12 +2519,15 @@
       <c r="C76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="1">
+      <c r="L76" s="1">
         <v>1</v>
       </c>
       <c r="M76" s="8">
-        <f>SUM(D76:L76)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -2449,38 +2564,37 @@
         <v>13</v>
       </c>
       <c r="D78" s="5">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5">
+        <v>110</v>
+      </c>
+      <c r="G78" s="5">
         <v>159</v>
       </c>
-      <c r="E78" s="5">
-        <v>110</v>
-      </c>
-      <c r="F78" s="5">
+      <c r="H78" s="5">
+        <v>39</v>
+      </c>
+      <c r="I78" s="5">
+        <v>111</v>
+      </c>
+      <c r="J78" s="5">
+        <v>252</v>
+      </c>
+      <c r="K78" s="5">
+        <v>48</v>
+      </c>
+      <c r="L78" s="5">
         <v>118</v>
       </c>
-      <c r="G78" s="5">
-        <v>48</v>
-      </c>
-      <c r="H78" s="5">
-        <v>252</v>
-      </c>
-      <c r="I78" s="5">
-        <v>39</v>
-      </c>
-      <c r="J78" s="5">
-        <v>111</v>
-      </c>
-      <c r="K78" s="5">
-        <v>10</v>
-      </c>
-      <c r="L78" s="5">
-        <v>6</v>
-      </c>
       <c r="M78" s="5">
-        <f>SUM(D78:L78)</f>
         <v>853</v>
       </c>
       <c r="N78" s="2" t="str">
-        <f>IF(SUM(D78:L78)=M78,"gleich","ungleich")</f>
+        <f t="shared" ref="N78:N80" si="18">IF(SUM(D78:L78)=M78,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2494,18 +2608,21 @@
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
       <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
         <v>3</v>
       </c>
-      <c r="H79" s="1">
-        <v>2</v>
-      </c>
       <c r="M79" s="8">
-        <f>SUM(D79:L79)</f>
         <v>6</v>
+      </c>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -2518,12 +2635,15 @@
       <c r="C80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="1">
+      <c r="L80" s="1">
         <v>1</v>
       </c>
       <c r="M80" s="8">
-        <f>SUM(D80:L80)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -2560,38 +2680,37 @@
         <v>13</v>
       </c>
       <c r="D82" s="5">
+        <v>10</v>
+      </c>
+      <c r="E82" s="5">
+        <v>18</v>
+      </c>
+      <c r="F82" s="5">
+        <v>151</v>
+      </c>
+      <c r="G82" s="5">
         <v>202</v>
       </c>
-      <c r="E82" s="5">
-        <v>151</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="H82" s="5">
+        <v>58</v>
+      </c>
+      <c r="I82" s="5">
+        <v>138</v>
+      </c>
+      <c r="J82" s="5">
+        <v>252</v>
+      </c>
+      <c r="K82" s="5">
+        <v>55</v>
+      </c>
+      <c r="L82" s="5">
         <v>123</v>
       </c>
-      <c r="G82" s="5">
-        <v>55</v>
-      </c>
-      <c r="H82" s="5">
-        <v>252</v>
-      </c>
-      <c r="I82" s="5">
-        <v>58</v>
-      </c>
-      <c r="J82" s="5">
-        <v>138</v>
-      </c>
-      <c r="K82" s="5">
-        <v>10</v>
-      </c>
-      <c r="L82" s="5">
-        <v>18</v>
-      </c>
       <c r="M82" s="5">
-        <f>SUM(D82:L82)</f>
         <v>1007</v>
       </c>
       <c r="N82" s="2" t="str">
-        <f>IF(SUM(D82:L82)=M82,"gleich","ungleich")</f>
+        <f t="shared" ref="N82:N84" si="19">IF(SUM(D82:L82)=M82,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2605,18 +2724,21 @@
       <c r="C83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
       <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1">
         <v>3</v>
       </c>
-      <c r="H83" s="1">
-        <v>2</v>
-      </c>
       <c r="M83" s="8">
-        <f>SUM(D83:L83)</f>
         <v>6</v>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,15 +2751,18 @@
       <c r="C84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="1">
-        <v>2</v>
-      </c>
-      <c r="J84" s="1">
-        <v>1</v>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2</v>
       </c>
       <c r="M84" s="8">
-        <f>SUM(D84:L84)</f>
         <v>3</v>
+      </c>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -2674,38 +2799,37 @@
         <v>13</v>
       </c>
       <c r="D86" s="5">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5">
+        <v>27</v>
+      </c>
+      <c r="F86" s="5">
+        <v>214</v>
+      </c>
+      <c r="G86" s="5">
         <v>248</v>
       </c>
-      <c r="E86" s="5">
-        <v>214</v>
-      </c>
-      <c r="F86" s="5">
+      <c r="H86" s="5">
+        <v>66</v>
+      </c>
+      <c r="I86" s="5">
+        <v>170</v>
+      </c>
+      <c r="J86" s="5">
+        <v>326</v>
+      </c>
+      <c r="K86" s="5">
+        <v>99</v>
+      </c>
+      <c r="L86" s="5">
         <v>159</v>
       </c>
-      <c r="G86" s="5">
-        <v>99</v>
-      </c>
-      <c r="H86" s="5">
-        <v>326</v>
-      </c>
-      <c r="I86" s="5">
-        <v>66</v>
-      </c>
-      <c r="J86" s="5">
-        <v>170</v>
-      </c>
-      <c r="K86" s="5">
-        <v>11</v>
-      </c>
-      <c r="L86" s="5">
-        <v>27</v>
-      </c>
       <c r="M86" s="5">
-        <f>SUM(D86:L86)</f>
         <v>1320</v>
       </c>
       <c r="N86" s="2" t="str">
-        <f>IF(SUM(D86:L86)=M86,"gleich","ungleich")</f>
+        <f t="shared" ref="N86:N88" si="20">IF(SUM(D86:L86)=M86,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2719,18 +2843,21 @@
       <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="1">
-        <v>2</v>
-      </c>
       <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2</v>
+      </c>
+      <c r="L87" s="1">
         <v>5</v>
       </c>
-      <c r="H87" s="1">
-        <v>2</v>
-      </c>
       <c r="M87" s="8">
-        <f>SUM(D87:L87)</f>
         <v>9</v>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -2743,15 +2870,18 @@
       <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="1">
-        <v>2</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1</v>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1">
+        <v>2</v>
       </c>
       <c r="M88" s="8">
-        <f>SUM(D88:L88)</f>
         <v>3</v>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -2788,38 +2918,37 @@
         <v>13</v>
       </c>
       <c r="D90" s="5">
+        <v>20</v>
+      </c>
+      <c r="E90" s="5">
+        <v>41</v>
+      </c>
+      <c r="F90" s="5">
+        <v>254</v>
+      </c>
+      <c r="G90" s="5">
         <v>305</v>
       </c>
-      <c r="E90" s="5">
-        <v>254</v>
-      </c>
-      <c r="F90" s="5">
+      <c r="H90" s="5">
+        <v>89</v>
+      </c>
+      <c r="I90" s="5">
+        <v>218</v>
+      </c>
+      <c r="J90" s="5">
+        <v>380</v>
+      </c>
+      <c r="K90" s="5">
+        <v>124</v>
+      </c>
+      <c r="L90" s="5">
         <v>202</v>
       </c>
-      <c r="G90" s="5">
-        <v>124</v>
-      </c>
-      <c r="H90" s="5">
-        <v>380</v>
-      </c>
-      <c r="I90" s="5">
-        <v>89</v>
-      </c>
-      <c r="J90" s="5">
-        <v>218</v>
-      </c>
-      <c r="K90" s="5">
-        <v>20</v>
-      </c>
-      <c r="L90" s="5">
-        <v>41</v>
-      </c>
       <c r="M90" s="5">
-        <f>SUM(D90:L90)</f>
         <v>1633</v>
       </c>
       <c r="N90" s="2" t="str">
-        <f>IF(SUM(D90:L90)=M90,"gleich","ungleich")</f>
+        <f t="shared" ref="N90:N92" si="21">IF(SUM(D90:L90)=M90,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2833,18 +2962,21 @@
       <c r="C91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="1">
-        <v>2</v>
-      </c>
       <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
         <v>5</v>
       </c>
-      <c r="H91" s="1">
-        <v>2</v>
-      </c>
       <c r="M91" s="8">
-        <f>SUM(D91:L91)</f>
         <v>9</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -2857,15 +2989,18 @@
       <c r="C92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="1">
-        <v>2</v>
-      </c>
-      <c r="J92" s="1">
+      <c r="I92" s="1">
+        <v>2</v>
+      </c>
+      <c r="L92" s="1">
         <v>2</v>
       </c>
       <c r="M92" s="8">
-        <f>SUM(D92:L92)</f>
         <v>4</v>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -2902,38 +3037,37 @@
         <v>13</v>
       </c>
       <c r="D94" s="5">
+        <v>21</v>
+      </c>
+      <c r="E94" s="5">
+        <v>45</v>
+      </c>
+      <c r="F94" s="5">
+        <v>281</v>
+      </c>
+      <c r="G94" s="5">
         <v>345</v>
       </c>
-      <c r="E94" s="5">
-        <v>281</v>
-      </c>
-      <c r="F94" s="5">
+      <c r="H94" s="5">
+        <v>110</v>
+      </c>
+      <c r="I94" s="5">
+        <v>230</v>
+      </c>
+      <c r="J94" s="5">
+        <v>435</v>
+      </c>
+      <c r="K94" s="5">
+        <v>138</v>
+      </c>
+      <c r="L94" s="5">
         <v>224</v>
       </c>
-      <c r="G94" s="5">
-        <v>138</v>
-      </c>
-      <c r="H94" s="5">
-        <v>435</v>
-      </c>
-      <c r="I94" s="5">
-        <v>110</v>
-      </c>
-      <c r="J94" s="5">
-        <v>230</v>
-      </c>
-      <c r="K94" s="5">
-        <v>21</v>
-      </c>
-      <c r="L94" s="5">
-        <v>45</v>
-      </c>
       <c r="M94" s="5">
-        <f>SUM(D94:L94)</f>
         <v>1829</v>
       </c>
       <c r="N94" s="2" t="str">
-        <f>IF(SUM(D94:L94)=M94,"gleich","ungleich")</f>
+        <f t="shared" ref="N94:N96" si="22">IF(SUM(D94:L94)=M94,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -2947,18 +3081,21 @@
       <c r="C95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="1">
-        <v>2</v>
-      </c>
       <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>2</v>
+      </c>
+      <c r="L95" s="1">
         <v>5</v>
       </c>
-      <c r="H95" s="1">
-        <v>2</v>
-      </c>
       <c r="M95" s="8">
-        <f>SUM(D95:L95)</f>
         <v>9</v>
+      </c>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -2971,15 +3108,18 @@
       <c r="C96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="1">
-        <v>2</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="I96" s="1">
         <v>3</v>
       </c>
+      <c r="L96" s="1">
+        <v>2</v>
+      </c>
       <c r="M96" s="8">
-        <f>SUM(D96:L96)</f>
         <v>5</v>
+      </c>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -3016,38 +3156,37 @@
         <v>13</v>
       </c>
       <c r="D98" s="5">
+        <v>29</v>
+      </c>
+      <c r="E98" s="5">
+        <v>50</v>
+      </c>
+      <c r="F98" s="5">
+        <v>303</v>
+      </c>
+      <c r="G98" s="5">
         <v>370</v>
       </c>
-      <c r="E98" s="5">
-        <v>303</v>
-      </c>
-      <c r="F98" s="5">
+      <c r="H98" s="5">
+        <v>127</v>
+      </c>
+      <c r="I98" s="5">
+        <v>279</v>
+      </c>
+      <c r="J98" s="5">
+        <v>462</v>
+      </c>
+      <c r="K98" s="5">
+        <v>151</v>
+      </c>
+      <c r="L98" s="5">
         <v>227</v>
       </c>
-      <c r="G98" s="5">
-        <v>151</v>
-      </c>
-      <c r="H98" s="5">
-        <v>462</v>
-      </c>
-      <c r="I98" s="5">
-        <v>127</v>
-      </c>
-      <c r="J98" s="5">
-        <v>279</v>
-      </c>
-      <c r="K98" s="5">
-        <v>29</v>
-      </c>
-      <c r="L98" s="5">
-        <v>50</v>
-      </c>
       <c r="M98" s="5">
-        <f>SUM(D98:L98)</f>
         <v>1998</v>
       </c>
       <c r="N98" s="2" t="str">
-        <f>IF(SUM(D98:L98)=M98,"gleich","ungleich")</f>
+        <f t="shared" ref="N98:N100" si="23">IF(SUM(D98:L98)=M98,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3061,18 +3200,21 @@
       <c r="C99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="1">
-        <v>2</v>
-      </c>
       <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
         <v>5</v>
       </c>
-      <c r="H99" s="1">
-        <v>2</v>
-      </c>
       <c r="M99" s="8">
-        <f>SUM(D99:L99)</f>
         <v>9</v>
+      </c>
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -3085,18 +3227,21 @@
       <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2</v>
-      </c>
-      <c r="J100" s="1">
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
         <v>3</v>
       </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
       <c r="M100" s="8">
-        <f>SUM(D100:L100)</f>
         <v>6</v>
+      </c>
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -3133,38 +3278,37 @@
         <v>13</v>
       </c>
       <c r="D102" s="5">
+        <v>32</v>
+      </c>
+      <c r="E102" s="5">
+        <v>63</v>
+      </c>
+      <c r="F102" s="5">
+        <v>315</v>
+      </c>
+      <c r="G102" s="5">
         <v>398</v>
       </c>
-      <c r="E102" s="5">
-        <v>315</v>
-      </c>
-      <c r="F102" s="5">
+      <c r="H102" s="5">
+        <v>147</v>
+      </c>
+      <c r="I102" s="5">
+        <v>296</v>
+      </c>
+      <c r="J102" s="5">
+        <v>488</v>
+      </c>
+      <c r="K102" s="5">
+        <v>179</v>
+      </c>
+      <c r="L102" s="5">
         <v>270</v>
       </c>
-      <c r="G102" s="5">
-        <v>179</v>
-      </c>
-      <c r="H102" s="5">
-        <v>488</v>
-      </c>
-      <c r="I102" s="5">
-        <v>147</v>
-      </c>
-      <c r="J102" s="5">
-        <v>296</v>
-      </c>
-      <c r="K102" s="5">
-        <v>32</v>
-      </c>
-      <c r="L102" s="5">
-        <v>63</v>
-      </c>
       <c r="M102" s="5">
-        <f>SUM(D102:L102)</f>
         <v>2188</v>
       </c>
       <c r="N102" s="2" t="str">
-        <f>IF(SUM(D102:L102)=M102,"gleich","ungleich")</f>
+        <f t="shared" ref="N102:N104" si="24">IF(SUM(D102:L102)=M102,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3178,18 +3322,21 @@
       <c r="C103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="1">
-        <v>2</v>
-      </c>
       <c r="F103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
         <v>5</v>
       </c>
-      <c r="H103" s="1">
-        <v>2</v>
-      </c>
       <c r="M103" s="8">
-        <f>SUM(D103:L103)</f>
         <v>9</v>
+      </c>
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -3202,18 +3349,21 @@
       <c r="C104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1">
-        <v>2</v>
-      </c>
-      <c r="J104" s="1">
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
         <v>3</v>
       </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
       <c r="M104" s="8">
-        <f>SUM(D104:L104)</f>
         <v>6</v>
+      </c>
+      <c r="N104" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -3250,38 +3400,37 @@
         <v>13</v>
       </c>
       <c r="D106" s="5">
+        <v>33</v>
+      </c>
+      <c r="E106" s="5">
+        <v>71</v>
+      </c>
+      <c r="F106" s="5">
+        <v>353</v>
+      </c>
+      <c r="G106" s="5">
         <v>420</v>
       </c>
-      <c r="E106" s="5">
-        <v>353</v>
-      </c>
-      <c r="F106" s="5">
+      <c r="H106" s="5">
+        <v>167</v>
+      </c>
+      <c r="I106" s="5">
+        <v>337</v>
+      </c>
+      <c r="J106" s="5">
+        <v>506</v>
+      </c>
+      <c r="K106" s="5">
+        <v>197</v>
+      </c>
+      <c r="L106" s="5">
         <v>289</v>
       </c>
-      <c r="G106" s="5">
-        <v>197</v>
-      </c>
-      <c r="H106" s="5">
-        <v>506</v>
-      </c>
-      <c r="I106" s="5">
-        <v>167</v>
-      </c>
-      <c r="J106" s="5">
-        <v>337</v>
-      </c>
-      <c r="K106" s="5">
-        <v>33</v>
-      </c>
-      <c r="L106" s="5">
-        <v>71</v>
-      </c>
       <c r="M106" s="5">
-        <f>SUM(D106:L106)</f>
         <v>2373</v>
       </c>
       <c r="N106" s="2" t="str">
-        <f>IF(SUM(D106:L106)=M106,"gleich","ungleich")</f>
+        <f t="shared" ref="N106:N108" si="25">IF(SUM(D106:L106)=M106,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3295,18 +3444,21 @@
       <c r="C107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
       <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2</v>
+      </c>
+      <c r="L107" s="1">
         <v>5</v>
       </c>
-      <c r="H107" s="1">
-        <v>2</v>
-      </c>
       <c r="M107" s="8">
-        <f>SUM(D107:L107)</f>
         <v>9</v>
+      </c>
+      <c r="N107" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -3319,18 +3471,21 @@
       <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2</v>
-      </c>
-      <c r="J108" s="1">
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
         <v>3</v>
       </c>
+      <c r="L108" s="1">
+        <v>2</v>
+      </c>
       <c r="M108" s="8">
-        <f>SUM(D108:L108)</f>
         <v>6</v>
+      </c>
+      <c r="N108" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -3367,38 +3522,37 @@
         <v>13</v>
       </c>
       <c r="D110" s="5">
+        <v>35</v>
+      </c>
+      <c r="E110" s="5">
+        <v>74</v>
+      </c>
+      <c r="F110" s="5">
+        <v>388</v>
+      </c>
+      <c r="G110" s="5">
         <v>506</v>
       </c>
-      <c r="E110" s="5">
-        <v>388</v>
-      </c>
-      <c r="F110" s="5">
+      <c r="H110" s="5">
+        <v>175</v>
+      </c>
+      <c r="I110" s="5">
+        <v>347</v>
+      </c>
+      <c r="J110" s="5">
+        <v>566</v>
+      </c>
+      <c r="K110" s="5">
+        <v>215</v>
+      </c>
+      <c r="L110" s="5">
         <v>342</v>
       </c>
-      <c r="G110" s="5">
-        <v>215</v>
-      </c>
-      <c r="H110" s="5">
-        <v>566</v>
-      </c>
-      <c r="I110" s="5">
-        <v>175</v>
-      </c>
-      <c r="J110" s="5">
-        <v>347</v>
-      </c>
-      <c r="K110" s="5">
-        <v>35</v>
-      </c>
-      <c r="L110" s="5">
-        <v>74</v>
-      </c>
       <c r="M110" s="5">
-        <f>SUM(D110:L110)</f>
         <v>2648</v>
       </c>
       <c r="N110" s="2" t="str">
-        <f>IF(SUM(D110:L110)=M110,"gleich","ungleich")</f>
+        <f t="shared" ref="N110:N112" si="26">IF(SUM(D110:L110)=M110,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3412,18 +3566,21 @@
       <c r="C111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="1">
-        <v>2</v>
-      </c>
       <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2</v>
+      </c>
+      <c r="L111" s="1">
         <v>5</v>
       </c>
-      <c r="H111" s="1">
-        <v>2</v>
-      </c>
       <c r="M111" s="8">
-        <f>SUM(D111:L111)</f>
         <v>9</v>
+      </c>
+      <c r="N111" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -3436,18 +3593,21 @@
       <c r="C112" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
         <v>3</v>
       </c>
-      <c r="J112" s="1">
+      <c r="L112" s="1">
         <v>3</v>
       </c>
       <c r="M112" s="8">
-        <f>SUM(D112:L112)</f>
         <v>7</v>
+      </c>
+      <c r="N112" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -3484,38 +3644,37 @@
         <v>13</v>
       </c>
       <c r="D114" s="5">
+        <v>54</v>
+      </c>
+      <c r="E114" s="5">
+        <v>83</v>
+      </c>
+      <c r="F114" s="5">
+        <v>392</v>
+      </c>
+      <c r="G114" s="5">
         <v>547</v>
       </c>
-      <c r="E114" s="5">
-        <v>392</v>
-      </c>
-      <c r="F114" s="5">
+      <c r="H114" s="5">
+        <v>185</v>
+      </c>
+      <c r="I114" s="5">
+        <v>385</v>
+      </c>
+      <c r="J114" s="5">
+        <v>573</v>
+      </c>
+      <c r="K114" s="5">
+        <v>228</v>
+      </c>
+      <c r="L114" s="5">
         <v>351</v>
       </c>
-      <c r="G114" s="5">
-        <v>228</v>
-      </c>
-      <c r="H114" s="5">
-        <v>573</v>
-      </c>
-      <c r="I114" s="5">
-        <v>185</v>
-      </c>
-      <c r="J114" s="5">
-        <v>385</v>
-      </c>
-      <c r="K114" s="5">
-        <v>54</v>
-      </c>
-      <c r="L114" s="5">
-        <v>83</v>
-      </c>
       <c r="M114" s="5">
-        <f>SUM(D114:L114)</f>
         <v>2798</v>
       </c>
       <c r="N114" s="2" t="str">
-        <f>IF(SUM(D114:L114)=M114,"gleich","ungleich")</f>
+        <f t="shared" ref="N114:N116" si="27">IF(SUM(D114:L114)=M114,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3529,18 +3688,21 @@
       <c r="C115" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E115" s="1">
-        <v>2</v>
-      </c>
       <c r="F115" s="1">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>2</v>
+      </c>
+      <c r="L115" s="1">
         <v>5</v>
       </c>
-      <c r="H115" s="1">
-        <v>2</v>
-      </c>
       <c r="M115" s="8">
-        <f>SUM(D115:L115)</f>
         <v>9</v>
+      </c>
+      <c r="N115" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -3553,18 +3715,21 @@
       <c r="C116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1">
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
         <v>3</v>
       </c>
-      <c r="J116" s="1">
+      <c r="L116" s="1">
         <v>3</v>
       </c>
       <c r="M116" s="8">
-        <f>SUM(D116:L116)</f>
         <v>7</v>
+      </c>
+      <c r="N116" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -3601,38 +3766,37 @@
         <v>13</v>
       </c>
       <c r="D118" s="5">
+        <v>54</v>
+      </c>
+      <c r="E118" s="5">
+        <v>98</v>
+      </c>
+      <c r="F118" s="5">
+        <v>419</v>
+      </c>
+      <c r="G118" s="5">
         <v>605</v>
       </c>
-      <c r="E118" s="5">
-        <v>419</v>
-      </c>
-      <c r="F118" s="5">
+      <c r="H118" s="5">
+        <v>209</v>
+      </c>
+      <c r="I118" s="5">
+        <v>389</v>
+      </c>
+      <c r="J118" s="5">
+        <v>624</v>
+      </c>
+      <c r="K118" s="5">
+        <v>249</v>
+      </c>
+      <c r="L118" s="5">
         <v>361</v>
       </c>
-      <c r="G118" s="5">
-        <v>249</v>
-      </c>
-      <c r="H118" s="5">
-        <v>624</v>
-      </c>
-      <c r="I118" s="5">
-        <v>209</v>
-      </c>
-      <c r="J118" s="5">
-        <v>389</v>
-      </c>
-      <c r="K118" s="5">
-        <v>54</v>
-      </c>
-      <c r="L118" s="5">
-        <v>98</v>
-      </c>
       <c r="M118" s="5">
-        <f>SUM(D118:L118)</f>
         <v>3008</v>
       </c>
       <c r="N118" s="2" t="str">
-        <f>IF(SUM(D118:L118)=M118,"gleich","ungleich")</f>
+        <f t="shared" ref="N118:N120" si="28">IF(SUM(D118:L118)=M118,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3646,18 +3810,21 @@
       <c r="C119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="1">
-        <v>2</v>
-      </c>
       <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>2</v>
+      </c>
+      <c r="L119" s="1">
         <v>5</v>
       </c>
-      <c r="H119" s="1">
-        <v>2</v>
-      </c>
       <c r="M119" s="8">
-        <f>SUM(D119:L119)</f>
         <v>9</v>
+      </c>
+      <c r="N119" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -3670,21 +3837,24 @@
       <c r="C120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
       <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>4</v>
+      </c>
+      <c r="L120" s="1">
         <v>3</v>
       </c>
-      <c r="J120" s="1">
-        <v>4</v>
-      </c>
       <c r="M120" s="8">
-        <f>SUM(D120:L120)</f>
         <v>9</v>
+      </c>
+      <c r="N120" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -3721,38 +3891,37 @@
         <v>13</v>
       </c>
       <c r="D122" s="5">
+        <v>62</v>
+      </c>
+      <c r="E122" s="5">
+        <v>104</v>
+      </c>
+      <c r="F122" s="5">
+        <v>443</v>
+      </c>
+      <c r="G122" s="5">
         <v>626</v>
       </c>
-      <c r="E122" s="5">
-        <v>443</v>
-      </c>
-      <c r="F122" s="5">
+      <c r="H122" s="5">
+        <v>269</v>
+      </c>
+      <c r="I122" s="5">
+        <v>419</v>
+      </c>
+      <c r="J122" s="5">
+        <v>642</v>
+      </c>
+      <c r="K122" s="5">
+        <v>263</v>
+      </c>
+      <c r="L122" s="5">
         <v>391</v>
       </c>
-      <c r="G122" s="5">
-        <v>263</v>
-      </c>
-      <c r="H122" s="5">
-        <v>642</v>
-      </c>
-      <c r="I122" s="5">
-        <v>269</v>
-      </c>
-      <c r="J122" s="5">
-        <v>419</v>
-      </c>
-      <c r="K122" s="5">
-        <v>62</v>
-      </c>
-      <c r="L122" s="5">
-        <v>104</v>
-      </c>
       <c r="M122" s="5">
-        <f>SUM(D122:L122)</f>
         <v>3219</v>
       </c>
       <c r="N122" s="2" t="str">
-        <f>IF(SUM(D122:L122)=M122,"gleich","ungleich")</f>
+        <f t="shared" ref="N122:N124" si="29">IF(SUM(D122:L122)=M122,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3766,18 +3935,21 @@
       <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E123" s="1">
-        <v>2</v>
-      </c>
       <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="J123" s="1">
+        <v>2</v>
+      </c>
+      <c r="L123" s="1">
         <v>5</v>
       </c>
-      <c r="H123" s="1">
-        <v>2</v>
-      </c>
       <c r="M123" s="8">
-        <f>SUM(D123:L123)</f>
         <v>9</v>
+      </c>
+      <c r="N123" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -3791,26 +3963,29 @@
         <v>15</v>
       </c>
       <c r="D124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1">
+        <v>4</v>
+      </c>
+      <c r="L124" s="1">
         <v>7</v>
       </c>
-      <c r="J124" s="1">
-        <v>4</v>
-      </c>
-      <c r="K124" s="1">
-        <v>1</v>
-      </c>
-      <c r="L124" s="1">
-        <v>1</v>
-      </c>
       <c r="M124" s="8">
-        <f>SUM(D124:L124)</f>
         <v>16</v>
+      </c>
+      <c r="N124" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -3847,38 +4022,37 @@
         <v>13</v>
       </c>
       <c r="D126" s="5">
+        <v>63</v>
+      </c>
+      <c r="E126" s="5">
+        <v>112</v>
+      </c>
+      <c r="F126" s="5">
+        <v>509</v>
+      </c>
+      <c r="G126" s="5">
         <v>694</v>
       </c>
-      <c r="E126" s="5">
-        <v>509</v>
-      </c>
-      <c r="F126" s="5">
+      <c r="H126" s="5">
+        <v>358</v>
+      </c>
+      <c r="I126" s="5">
+        <v>443</v>
+      </c>
+      <c r="J126" s="5">
+        <v>674</v>
+      </c>
+      <c r="K126" s="5">
+        <v>294</v>
+      </c>
+      <c r="L126" s="5">
         <v>439</v>
       </c>
-      <c r="G126" s="5">
-        <v>294</v>
-      </c>
-      <c r="H126" s="5">
-        <v>674</v>
-      </c>
-      <c r="I126" s="5">
-        <v>358</v>
-      </c>
-      <c r="J126" s="5">
-        <v>443</v>
-      </c>
-      <c r="K126" s="5">
-        <v>63</v>
-      </c>
-      <c r="L126" s="5">
-        <v>112</v>
-      </c>
       <c r="M126" s="5">
-        <f>SUM(D126:L126)</f>
         <v>3586</v>
       </c>
       <c r="N126" s="2" t="str">
-        <f>IF(SUM(D126:L126)=M126,"gleich","ungleich")</f>
+        <f t="shared" ref="N126:N128" si="30">IF(SUM(D126:L126)=M126,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -3892,18 +4066,21 @@
       <c r="C127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="1">
-        <v>2</v>
-      </c>
       <c r="F127" s="1">
+        <v>2</v>
+      </c>
+      <c r="J127" s="1">
+        <v>2</v>
+      </c>
+      <c r="L127" s="1">
         <v>5</v>
       </c>
-      <c r="H127" s="1">
-        <v>2</v>
-      </c>
       <c r="M127" s="8">
-        <f>SUM(D127:L127)</f>
         <v>9</v>
+      </c>
+      <c r="N127" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -3917,26 +4094,29 @@
         <v>15</v>
       </c>
       <c r="D128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>4</v>
+      </c>
+      <c r="L128" s="1">
         <v>7</v>
       </c>
-      <c r="J128" s="1">
-        <v>4</v>
-      </c>
-      <c r="K128" s="1">
-        <v>1</v>
-      </c>
-      <c r="L128" s="1">
-        <v>1</v>
-      </c>
       <c r="M128" s="8">
-        <f>SUM(D128:L128)</f>
         <v>16</v>
+      </c>
+      <c r="N128" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -3973,38 +4153,37 @@
         <v>13</v>
       </c>
       <c r="D130" s="5">
+        <v>70</v>
+      </c>
+      <c r="E130" s="5">
+        <v>121</v>
+      </c>
+      <c r="F130" s="5">
+        <v>561</v>
+      </c>
+      <c r="G130" s="5">
         <v>705</v>
       </c>
-      <c r="E130" s="5">
-        <v>561</v>
-      </c>
-      <c r="F130" s="5">
+      <c r="H130" s="5">
+        <v>372</v>
+      </c>
+      <c r="I130" s="5">
+        <v>482</v>
+      </c>
+      <c r="J130" s="5">
+        <v>800</v>
+      </c>
+      <c r="K130" s="5">
+        <v>323</v>
+      </c>
+      <c r="L130" s="5">
         <v>460</v>
       </c>
-      <c r="G130" s="5">
-        <v>323</v>
-      </c>
-      <c r="H130" s="5">
-        <v>800</v>
-      </c>
-      <c r="I130" s="5">
-        <v>372</v>
-      </c>
-      <c r="J130" s="5">
-        <v>482</v>
-      </c>
-      <c r="K130" s="5">
-        <v>70</v>
-      </c>
-      <c r="L130" s="5">
-        <v>121</v>
-      </c>
       <c r="M130" s="5">
-        <f>SUM(D130:L130)</f>
         <v>3894</v>
       </c>
       <c r="N130" s="2" t="str">
-        <f>IF(SUM(D130:L130)=M130,"gleich","ungleich")</f>
+        <f t="shared" ref="N130:N132" si="31">IF(SUM(D130:L130)=M130,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -4018,18 +4197,21 @@
       <c r="C131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="1">
-        <v>2</v>
-      </c>
       <c r="F131" s="1">
+        <v>2</v>
+      </c>
+      <c r="J131" s="1">
+        <v>2</v>
+      </c>
+      <c r="L131" s="1">
         <v>5</v>
       </c>
-      <c r="H131" s="1">
-        <v>2</v>
-      </c>
       <c r="M131" s="8">
-        <f>SUM(D131:L131)</f>
         <v>9</v>
+      </c>
+      <c r="N131" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -4043,29 +4225,32 @@
         <v>15</v>
       </c>
       <c r="D132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
       <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1">
+        <v>4</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1">
         <v>11</v>
       </c>
-      <c r="H132" s="1">
-        <v>1</v>
-      </c>
-      <c r="J132" s="1">
-        <v>4</v>
-      </c>
-      <c r="K132" s="1">
-        <v>1</v>
-      </c>
-      <c r="L132" s="1">
-        <v>1</v>
-      </c>
       <c r="M132" s="8">
-        <f>SUM(D132:L132)</f>
         <v>21</v>
+      </c>
+      <c r="N132" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -4102,38 +4287,37 @@
         <v>13</v>
       </c>
       <c r="D134" s="5">
+        <v>83</v>
+      </c>
+      <c r="E134" s="5">
+        <v>134</v>
+      </c>
+      <c r="F134" s="5">
+        <v>605</v>
+      </c>
+      <c r="G134" s="5">
         <v>762</v>
       </c>
-      <c r="E134" s="5">
-        <v>605</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="H134" s="5">
+        <v>405</v>
+      </c>
+      <c r="I134" s="5">
+        <v>499</v>
+      </c>
+      <c r="J134" s="5">
+        <v>1064</v>
+      </c>
+      <c r="K134" s="5">
+        <v>354</v>
+      </c>
+      <c r="L134" s="5">
         <v>546</v>
       </c>
-      <c r="G134" s="5">
-        <v>354</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1064</v>
-      </c>
-      <c r="I134" s="5">
-        <v>405</v>
-      </c>
-      <c r="J134" s="5">
-        <v>499</v>
-      </c>
-      <c r="K134" s="5">
-        <v>83</v>
-      </c>
-      <c r="L134" s="5">
-        <v>134</v>
-      </c>
       <c r="M134" s="5">
-        <f>SUM(D134:L134)</f>
         <v>4452</v>
       </c>
       <c r="N134" s="2" t="str">
-        <f>IF(SUM(D134:L134)=M134,"gleich","ungleich")</f>
+        <f t="shared" ref="N134:N136" si="32">IF(SUM(D134:L134)=M134,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -4147,18 +4331,21 @@
       <c r="C135" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E135" s="1">
-        <v>2</v>
-      </c>
       <c r="F135" s="1">
+        <v>2</v>
+      </c>
+      <c r="J135" s="1">
+        <v>2</v>
+      </c>
+      <c r="L135" s="1">
         <v>5</v>
       </c>
-      <c r="H135" s="1">
-        <v>2</v>
-      </c>
       <c r="M135" s="8">
-        <f>SUM(D135:L135)</f>
         <v>9</v>
+      </c>
+      <c r="N135" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -4175,26 +4362,29 @@
         <v>2</v>
       </c>
       <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
         <v>3</v>
       </c>
-      <c r="F136" s="1">
+      <c r="G136" s="1">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1">
+        <v>5</v>
+      </c>
+      <c r="J136" s="1">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1">
         <v>11</v>
       </c>
-      <c r="H136" s="1">
-        <v>1</v>
-      </c>
-      <c r="J136" s="1">
-        <v>5</v>
-      </c>
-      <c r="K136" s="1">
-        <v>2</v>
-      </c>
-      <c r="L136" s="1">
-        <v>1</v>
-      </c>
       <c r="M136" s="8">
-        <f>SUM(D136:L136)</f>
         <v>25</v>
+      </c>
+      <c r="N136" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -4231,38 +4421,37 @@
         <v>13</v>
       </c>
       <c r="D138" s="5">
+        <v>82</v>
+      </c>
+      <c r="E138" s="5">
+        <v>140</v>
+      </c>
+      <c r="F138" s="5">
+        <v>616</v>
+      </c>
+      <c r="G138" s="5">
         <v>798</v>
       </c>
-      <c r="E138" s="5">
-        <v>616</v>
-      </c>
-      <c r="F138" s="5">
+      <c r="H138" s="5">
+        <v>429</v>
+      </c>
+      <c r="I138" s="5">
+        <v>564</v>
+      </c>
+      <c r="J138" s="5">
+        <v>1251</v>
+      </c>
+      <c r="K138" s="5">
+        <v>379</v>
+      </c>
+      <c r="L138" s="5">
         <v>633</v>
       </c>
-      <c r="G138" s="5">
-        <v>379</v>
-      </c>
-      <c r="H138" s="5">
-        <v>1251</v>
-      </c>
-      <c r="I138" s="5">
-        <v>429</v>
-      </c>
-      <c r="J138" s="5">
-        <v>564</v>
-      </c>
-      <c r="K138" s="5">
-        <v>82</v>
-      </c>
-      <c r="L138" s="5">
-        <v>140</v>
-      </c>
       <c r="M138" s="5">
-        <f>SUM(D138:L138)</f>
         <v>4892</v>
       </c>
       <c r="N138" s="2" t="str">
-        <f>IF(SUM(D138:L138)=M138,"gleich","ungleich")</f>
+        <f t="shared" ref="N138:N140" si="33">IF(SUM(D138:L138)=M138,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -4276,18 +4465,21 @@
       <c r="C139" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="1">
-        <v>2</v>
-      </c>
       <c r="F139" s="1">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="L139" s="1">
         <v>5</v>
       </c>
-      <c r="H139" s="1">
-        <v>2</v>
-      </c>
       <c r="M139" s="8">
-        <f>SUM(D139:L139)</f>
         <v>9</v>
+      </c>
+      <c r="N139" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -4304,26 +4496,29 @@
         <v>2</v>
       </c>
       <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
         <v>3</v>
       </c>
-      <c r="F140" s="1">
+      <c r="G140" s="1">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1">
+        <v>2</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1">
         <v>11</v>
       </c>
-      <c r="H140" s="1">
-        <v>1</v>
-      </c>
-      <c r="J140" s="1">
-        <v>2</v>
-      </c>
-      <c r="K140" s="1">
-        <v>2</v>
-      </c>
-      <c r="L140" s="1">
-        <v>1</v>
-      </c>
       <c r="M140" s="8">
-        <f>SUM(D140:L140)</f>
         <v>22</v>
+      </c>
+      <c r="N140" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -4360,38 +4555,37 @@
         <v>13</v>
       </c>
       <c r="D142" s="5">
+        <v>86</v>
+      </c>
+      <c r="E142" s="5">
+        <v>144</v>
+      </c>
+      <c r="F142" s="5">
+        <v>685</v>
+      </c>
+      <c r="G142" s="5">
         <v>858</v>
       </c>
-      <c r="E142" s="5">
-        <v>685</v>
-      </c>
-      <c r="F142" s="5">
+      <c r="H142" s="5">
+        <v>493</v>
+      </c>
+      <c r="I142" s="5">
+        <v>580</v>
+      </c>
+      <c r="J142" s="5">
+        <v>1332</v>
+      </c>
+      <c r="K142" s="5">
+        <v>404</v>
+      </c>
+      <c r="L142" s="5">
         <v>661</v>
       </c>
-      <c r="G142" s="5">
-        <v>404</v>
-      </c>
-      <c r="H142" s="5">
-        <v>1332</v>
-      </c>
-      <c r="I142" s="5">
-        <v>493</v>
-      </c>
-      <c r="J142" s="5">
-        <v>580</v>
-      </c>
-      <c r="K142" s="5">
-        <v>86</v>
-      </c>
-      <c r="L142" s="5">
-        <v>144</v>
-      </c>
       <c r="M142" s="5">
-        <f>SUM(D142:L142)</f>
         <v>5243</v>
       </c>
       <c r="N142" s="2" t="str">
-        <f>IF(SUM(D142:L142)=M142,"gleich","ungleich")</f>
+        <f t="shared" ref="N142:N144" si="34">IF(SUM(D142:L142)=M142,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -4405,18 +4599,21 @@
       <c r="C143" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E143" s="1">
-        <v>2</v>
-      </c>
       <c r="F143" s="1">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>2</v>
+      </c>
+      <c r="L143" s="1">
         <v>5</v>
       </c>
-      <c r="H143" s="1">
-        <v>2</v>
-      </c>
       <c r="M143" s="8">
-        <f>SUM(D143:L143)</f>
         <v>9</v>
+      </c>
+      <c r="N143" s="2" t="str">
+        <f t="shared" si="34"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -4433,26 +4630,29 @@
         <v>2</v>
       </c>
       <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
         <v>4</v>
       </c>
-      <c r="F144" s="1">
+      <c r="G144" s="1">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1">
+        <v>5</v>
+      </c>
+      <c r="J144" s="1">
+        <v>4</v>
+      </c>
+      <c r="L144" s="1">
         <v>12</v>
       </c>
-      <c r="H144" s="1">
-        <v>4</v>
-      </c>
-      <c r="J144" s="1">
-        <v>5</v>
-      </c>
-      <c r="K144" s="1">
-        <v>2</v>
-      </c>
-      <c r="L144" s="1">
-        <v>1</v>
-      </c>
       <c r="M144" s="8">
-        <f>SUM(D144:L144)</f>
         <v>30</v>
+      </c>
+      <c r="N144" s="2" t="str">
+        <f t="shared" si="34"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -4489,38 +4689,37 @@
         <v>13</v>
       </c>
       <c r="D146" s="5">
+        <v>87</v>
+      </c>
+      <c r="E146" s="5">
+        <v>160</v>
+      </c>
+      <c r="F146" s="5">
+        <v>748</v>
+      </c>
+      <c r="G146" s="5">
         <v>919</v>
       </c>
-      <c r="E146" s="5">
-        <v>748</v>
-      </c>
-      <c r="F146" s="5">
+      <c r="H146" s="5">
+        <v>516</v>
+      </c>
+      <c r="I146" s="5">
+        <v>622</v>
+      </c>
+      <c r="J146" s="5">
+        <v>1399</v>
+      </c>
+      <c r="K146" s="5">
+        <v>409</v>
+      </c>
+      <c r="L146" s="5">
         <v>689</v>
       </c>
-      <c r="G146" s="5">
-        <v>409</v>
-      </c>
-      <c r="H146" s="5">
-        <v>1399</v>
-      </c>
-      <c r="I146" s="5">
-        <v>516</v>
-      </c>
-      <c r="J146" s="5">
-        <v>622</v>
-      </c>
-      <c r="K146" s="5">
-        <v>87</v>
-      </c>
-      <c r="L146" s="5">
-        <v>160</v>
-      </c>
       <c r="M146" s="5">
-        <f>SUM(D146:L146)</f>
         <v>5549</v>
       </c>
       <c r="N146" s="2" t="str">
-        <f>IF(SUM(D146:L146)=M146,"gleich","ungleich")</f>
+        <f t="shared" ref="N146:N148" si="35">IF(SUM(D146:L146)=M146,"gleich","ungleich")</f>
         <v>gleich</v>
       </c>
     </row>
@@ -4534,18 +4733,21 @@
       <c r="C147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E147" s="1">
-        <v>2</v>
-      </c>
       <c r="F147" s="1">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>2</v>
+      </c>
+      <c r="L147" s="1">
         <v>5</v>
       </c>
-      <c r="H147" s="1">
-        <v>2</v>
-      </c>
       <c r="M147" s="8">
-        <f>SUM(D147:L147)</f>
         <v>9</v>
+      </c>
+      <c r="N147" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -4562,26 +4764,29 @@
         <v>2</v>
       </c>
       <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
         <v>4</v>
       </c>
-      <c r="F148" s="1">
+      <c r="G148" s="1">
+        <v>2</v>
+      </c>
+      <c r="I148" s="1">
+        <v>5</v>
+      </c>
+      <c r="J148" s="1">
+        <v>4</v>
+      </c>
+      <c r="L148" s="1">
         <v>12</v>
       </c>
-      <c r="H148" s="1">
-        <v>4</v>
-      </c>
-      <c r="J148" s="1">
-        <v>5</v>
-      </c>
-      <c r="K148" s="1">
-        <v>2</v>
-      </c>
-      <c r="L148" s="1">
-        <v>1</v>
-      </c>
       <c r="M148" s="8">
-        <f>SUM(D148:L148)</f>
         <v>30</v>
+      </c>
+      <c r="N148" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>gleich</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -4608,6 +4813,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Chek</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -205,11 +208,26 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -500,15 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="13" width="5.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="2"/>
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -4812,8 +4832,144 @@
         <v>4016</v>
       </c>
     </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>43915</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="5">
+        <v>89</v>
+      </c>
+      <c r="E150" s="5">
+        <v>168</v>
+      </c>
+      <c r="F150" s="5">
+        <v>799</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H150" s="5">
+        <v>558</v>
+      </c>
+      <c r="I150" s="5">
+        <v>633</v>
+      </c>
+      <c r="J150" s="5">
+        <v>1460</v>
+      </c>
+      <c r="K150" s="5">
+        <v>422</v>
+      </c>
+      <c r="L150" s="5">
+        <v>735</v>
+      </c>
+      <c r="M150" s="5">
+        <v>5888</v>
+      </c>
+      <c r="N150" s="2" t="str">
+        <f t="shared" ref="N150:N152" si="36">IF(SUM(D150:L150)=M150,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>43915</v>
+      </c>
+      <c r="B151" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N151" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>43915</v>
+      </c>
+      <c r="B152" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>5</v>
+      </c>
+      <c r="G152" s="1">
+        <v>2</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
+      <c r="I152" s="1">
+        <v>7</v>
+      </c>
+      <c r="J152" s="1">
+        <v>4</v>
+      </c>
+      <c r="L152" s="1">
+        <v>12</v>
+      </c>
+      <c r="M152" s="8">
+        <v>34</v>
+      </c>
+      <c r="N152" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>43915</v>
+      </c>
+      <c r="B153" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="12">
+        <v>3588</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1:N149 N154:N1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -213,7 +213,21 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -518,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4960,8 +4974,144 @@
         <v>3588</v>
       </c>
     </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>43915</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="5">
+        <v>115</v>
+      </c>
+      <c r="E154" s="5">
+        <v>183</v>
+      </c>
+      <c r="F154" s="5">
+        <v>873</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1054</v>
+      </c>
+      <c r="H154" s="5">
+        <v>591</v>
+      </c>
+      <c r="I154" s="5">
+        <v>699</v>
+      </c>
+      <c r="J154" s="5">
+        <v>1623</v>
+      </c>
+      <c r="K154" s="5">
+        <v>435</v>
+      </c>
+      <c r="L154" s="5">
+        <v>825</v>
+      </c>
+      <c r="M154" s="5">
+        <v>6398</v>
+      </c>
+      <c r="N154" s="2" t="str">
+        <f t="shared" ref="N154:N156" si="37">IF(SUM(D154:L154)=M154,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>43915</v>
+      </c>
+      <c r="B155" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M155" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>43915</v>
+      </c>
+      <c r="B156" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>12</v>
+      </c>
+      <c r="G156" s="1">
+        <v>3</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>11</v>
+      </c>
+      <c r="J156" s="1">
+        <v>4</v>
+      </c>
+      <c r="L156" s="1">
+        <v>14</v>
+      </c>
+      <c r="M156" s="8">
+        <v>49</v>
+      </c>
+      <c r="N156" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
+        <v>43915</v>
+      </c>
+      <c r="B157" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="12">
+        <v>3588</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N149 N154:N1048576">
+  <conditionalFormatting sqref="N1:N149 N158:N1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -4969,7 +5119,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Chek</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -532,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,7 +4873,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B150" s="4">
         <v>0.33333333333333331</v>
@@ -4857,34 +4882,34 @@
         <v>13</v>
       </c>
       <c r="D150" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E150" s="5">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F150" s="5">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G150" s="5">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H150" s="5">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I150" s="5">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="J150" s="5">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="K150" s="5">
         <v>422</v>
       </c>
       <c r="L150" s="5">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="M150" s="5">
-        <v>5888</v>
+        <v>5845</v>
       </c>
       <c r="N150" s="2" t="str">
         <f t="shared" ref="N150:N152" si="36">IF(SUM(D150:L150)=M150,"gleich","ungleich")</f>
@@ -4893,7 +4918,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B151" s="7">
         <v>0.33333333333333331</v>
@@ -4901,17 +4926,26 @@
       <c r="C151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M151" s="13" t="s">
-        <v>18</v>
+      <c r="F151" s="1">
+        <v>2</v>
+      </c>
+      <c r="J151" s="1">
+        <v>2</v>
+      </c>
+      <c r="L151" s="1">
+        <v>5</v>
+      </c>
+      <c r="M151" s="13">
+        <v>9</v>
       </c>
       <c r="N151" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>ungleich</v>
+        <v>gleich</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B152" s="7">
         <v>0.33333333333333331</v>
@@ -4953,7 +4987,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B153" s="7">
         <v>0.33333333333333331</v>
@@ -4970,13 +5004,11 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
-      <c r="M153" s="12">
-        <v>3588</v>
-      </c>
+      <c r="M153" s="12"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B154" s="4">
         <v>0.625</v>
@@ -4985,34 +5017,34 @@
         <v>13</v>
       </c>
       <c r="D154" s="5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E154" s="5">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F154" s="5">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="G154" s="5">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H154" s="5">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I154" s="5">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="J154" s="5">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="K154" s="5">
         <v>435</v>
       </c>
       <c r="L154" s="5">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="M154" s="5">
-        <v>6398</v>
+        <v>6340</v>
       </c>
       <c r="N154" s="2" t="str">
         <f t="shared" ref="N154:N156" si="37">IF(SUM(D154:L154)=M154,"gleich","ungleich")</f>
@@ -5021,7 +5053,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B155" s="7">
         <v>0.625</v>
@@ -5029,17 +5061,26 @@
       <c r="C155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M155" s="13" t="s">
-        <v>18</v>
+      <c r="F155" s="1">
+        <v>2</v>
+      </c>
+      <c r="J155" s="1">
+        <v>2</v>
+      </c>
+      <c r="L155" s="1">
+        <v>5</v>
+      </c>
+      <c r="M155" s="13">
+        <v>9</v>
       </c>
       <c r="N155" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>ungleich</v>
+        <v>gleich</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B156" s="7">
         <v>0.625</v>
@@ -5081,7 +5122,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B157" s="7">
         <v>0.625</v>
@@ -5098,12 +5139,302 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
-      <c r="M157" s="12">
-        <v>3588</v>
-      </c>
+      <c r="M157" s="12"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>43917</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="5">
+        <v>136</v>
+      </c>
+      <c r="E158" s="5">
+        <v>201</v>
+      </c>
+      <c r="F158" s="5">
+        <v>1125</v>
+      </c>
+      <c r="G158" s="5">
+        <v>1213</v>
+      </c>
+      <c r="H158" s="5">
+        <v>678</v>
+      </c>
+      <c r="I158" s="5">
+        <v>752</v>
+      </c>
+      <c r="J158" s="5">
+        <v>1744</v>
+      </c>
+      <c r="K158" s="5">
+        <v>500</v>
+      </c>
+      <c r="L158" s="5">
+        <v>983</v>
+      </c>
+      <c r="M158" s="5">
+        <v>6901</v>
+      </c>
+      <c r="N158" s="2" t="str">
+        <f t="shared" ref="N158:N160" si="38">IF(SUM(D158:L158)=M158,"gleich","ungleich")</f>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B159" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2</v>
+      </c>
+      <c r="J159" s="1">
+        <v>2</v>
+      </c>
+      <c r="L159" s="1">
+        <v>5</v>
+      </c>
+      <c r="M159" s="13">
+        <v>9</v>
+      </c>
+      <c r="N159" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B160" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2</v>
+      </c>
+      <c r="F160" s="1">
+        <v>13</v>
+      </c>
+      <c r="G160" s="1">
+        <v>3</v>
+      </c>
+      <c r="H160" s="1">
+        <v>1</v>
+      </c>
+      <c r="I160" s="1">
+        <v>11</v>
+      </c>
+      <c r="J160" s="1">
+        <v>5</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1">
+        <v>14</v>
+      </c>
+      <c r="M160" s="8">
+        <v>52</v>
+      </c>
+      <c r="N160" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B161" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="12"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>43917</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="5">
+        <v>136</v>
+      </c>
+      <c r="E162" s="5">
+        <v>200</v>
+      </c>
+      <c r="F162" s="5">
+        <v>1132</v>
+      </c>
+      <c r="G162" s="5">
+        <v>1224</v>
+      </c>
+      <c r="H162" s="5">
+        <v>686</v>
+      </c>
+      <c r="I162" s="5">
+        <v>766</v>
+      </c>
+      <c r="J162" s="5">
+        <v>1748</v>
+      </c>
+      <c r="K162" s="5">
+        <v>502</v>
+      </c>
+      <c r="L162" s="5">
+        <v>986</v>
+      </c>
+      <c r="M162" s="5">
+        <v>7332</v>
+      </c>
+      <c r="N162" s="2" t="str">
+        <f t="shared" ref="N162:N164" si="39">IF(SUM(D162:L162)=M162,"gleich","ungleich")</f>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B163" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>2</v>
+      </c>
+      <c r="L163" s="1">
+        <v>5</v>
+      </c>
+      <c r="M163" s="13">
+        <v>9</v>
+      </c>
+      <c r="N163" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B164" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>13</v>
+      </c>
+      <c r="G164" s="1">
+        <v>3</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="1">
+        <v>11</v>
+      </c>
+      <c r="J164" s="1">
+        <v>5</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1">
+        <v>14</v>
+      </c>
+      <c r="M164" s="8">
+        <v>52</v>
+      </c>
+      <c r="N164" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>43917</v>
+      </c>
+      <c r="B165" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N149 N158:N1048576">
+  <conditionalFormatting sqref="N1:N149 N166:N1048576">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5111,7 +5442,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5119,7 +5450,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Eigene_DATEN\private_Projekte\COVID-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEAD67D-462E-084C-A79D-FFB5FC46A236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14280"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,23 +557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="13" width="5.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.5" style="1"/>
+    <col min="4" max="13" width="5.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2"/>
+    <col min="15" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43886</v>
       </c>
@@ -645,7 +646,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43886</v>
       </c>
@@ -663,7 +664,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43886</v>
       </c>
@@ -681,7 +682,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43886</v>
       </c>
@@ -704,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43887</v>
       </c>
@@ -733,7 +734,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43887</v>
       </c>
@@ -751,7 +752,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43887</v>
       </c>
@@ -769,7 +770,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43887</v>
       </c>
@@ -792,7 +793,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43888</v>
       </c>
@@ -823,7 +824,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43888</v>
       </c>
@@ -841,7 +842,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43888</v>
       </c>
@@ -859,7 +860,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43888</v>
       </c>
@@ -882,7 +883,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43889</v>
       </c>
@@ -913,7 +914,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43889</v>
       </c>
@@ -931,7 +932,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43889</v>
       </c>
@@ -949,7 +950,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43889</v>
       </c>
@@ -972,7 +973,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43890</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43890</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43890</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43890</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43891</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43891</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43891</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43891</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43892</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43892</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43892</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>43892</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43893</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>43893</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>43893</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>43893</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43894</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>43894</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>43894</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>43894</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43895</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>43895</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43895</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>43895</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>43896</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43896</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>43896</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43897</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43897</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>43897</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43898</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>43898</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>43898</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>43898</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43899</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43899</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43899</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>43899</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43900</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43900</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>43900</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43901</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43901</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>43901</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>43901</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43902</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>43902</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>43902</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>43902</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43903</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>43903</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>43903</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>43903</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43904</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>43904</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>43904</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>43904</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43905</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>43905</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>43905</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>43905</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43906</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>43906</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>43906</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>43906</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43907</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>43907</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>43907</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>43907</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43908</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>43908</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>43908</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>43908</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43909</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>43909</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>43909</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>43909</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43909</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>43909</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>43909</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>43909</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43910</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>43910</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>43910</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>43910</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>43910</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>43910</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>43910</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>43910</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>43911</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>43911</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>43911</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>43911</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>43911</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>43911</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>43911</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>43911</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>43912</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>43912</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>43912</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>43912</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43912</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>43912</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>43912</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>43912</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>43913</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>43913</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>43913</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>43913</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>43913</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>43913</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>43913</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>43913</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>43914</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>43914</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>43914</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>43914</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>43914</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>43914</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>43914</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>43914</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>43915</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>43915</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>43915</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>43915</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>43915</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>43915</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>43915</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>43915</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>43916</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>43916</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>43916</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>43916</v>
       </c>
@@ -5004,9 +5005,11 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
-      <c r="M153" s="12"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M153" s="12">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>43916</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>43916</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>43916</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>43916</v>
       </c>
@@ -5139,9 +5142,11 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
-      <c r="M157" s="12"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M157" s="12">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>43917</v>
       </c>
@@ -5152,41 +5157,41 @@
         <v>13</v>
       </c>
       <c r="D158" s="5">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E158" s="5">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F158" s="5">
-        <v>1125</v>
+        <v>977</v>
       </c>
       <c r="G158" s="5">
-        <v>1213</v>
+        <v>1159</v>
       </c>
       <c r="H158" s="5">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I158" s="5">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="J158" s="5">
-        <v>1744</v>
+        <v>1682</v>
       </c>
       <c r="K158" s="5">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="L158" s="5">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="M158" s="5">
         <v>6901</v>
       </c>
       <c r="N158" s="2" t="str">
         <f t="shared" ref="N158:N160" si="38">IF(SUM(D158:L158)=M158,"gleich","ungleich")</f>
-        <v>ungleich</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>43917</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>43917</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>43917</v>
       </c>
@@ -5277,9 +5282,11 @@
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
       <c r="L161" s="11"/>
-      <c r="M161" s="12"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M161" s="12">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>43917</v>
       </c>
@@ -5299,32 +5306,32 @@
         <v>1132</v>
       </c>
       <c r="G162" s="5">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H162" s="5">
         <v>686</v>
       </c>
       <c r="I162" s="5">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J162" s="5">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K162" s="5">
         <v>502</v>
       </c>
       <c r="L162" s="5">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M162" s="5">
-        <v>7332</v>
+        <v>7374</v>
       </c>
       <c r="N162" s="2" t="str">
         <f t="shared" ref="N162:N164" si="39">IF(SUM(D162:L162)=M162,"gleich","ungleich")</f>
-        <v>ungleich</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>43917</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>43917</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>43917</v>
       </c>
@@ -5415,7 +5422,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
-      <c r="M165" s="12"/>
+      <c r="M165" s="12">
+        <v>3557</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:N149 N166:N1048576">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEAD67D-462E-084C-A79D-FFB5FC46A236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB54E70-D627-8B4B-B925-E19A8EA397AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -211,7 +211,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -558,11 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H146" sqref="H146"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5426,8 +5454,240 @@
         <v>3557</v>
       </c>
     </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>43918</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="5">
+        <v>140</v>
+      </c>
+      <c r="E166" s="5">
+        <v>205</v>
+      </c>
+      <c r="F166" s="5">
+        <v>1211</v>
+      </c>
+      <c r="G166" s="5">
+        <v>1284</v>
+      </c>
+      <c r="H166" s="5">
+        <v>746</v>
+      </c>
+      <c r="I166" s="5">
+        <v>802</v>
+      </c>
+      <c r="J166" s="5">
+        <v>1812</v>
+      </c>
+      <c r="K166" s="5">
+        <v>534</v>
+      </c>
+      <c r="L166" s="5">
+        <v>1012</v>
+      </c>
+      <c r="M166" s="5">
+        <v>7746</v>
+      </c>
+      <c r="N166" s="2" t="str">
+        <f t="shared" ref="N166:N168" si="40">IF(SUM(D166:L166)=M166,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B167" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2</v>
+      </c>
+      <c r="J167" s="1">
+        <v>2</v>
+      </c>
+      <c r="L167" s="1">
+        <v>5</v>
+      </c>
+      <c r="M167" s="13">
+        <v>9</v>
+      </c>
+      <c r="N167" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B168" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1">
+        <v>2</v>
+      </c>
+      <c r="F168" s="1">
+        <v>13</v>
+      </c>
+      <c r="G168" s="1">
+        <v>4</v>
+      </c>
+      <c r="H168" s="1">
+        <v>4</v>
+      </c>
+      <c r="I168" s="1">
+        <v>17</v>
+      </c>
+      <c r="J168" s="1">
+        <v>9</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1">
+        <v>16</v>
+      </c>
+      <c r="M168" s="8">
+        <v>68</v>
+      </c>
+      <c r="N168" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B169" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="12"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>43918</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="2" t="str">
+        <f t="shared" ref="N170:N172" si="41">IF(SUM(D170:L170)=M170,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B171" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M171" s="13"/>
+      <c r="N171" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B172" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M172" s="8"/>
+      <c r="N172" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>43918</v>
+      </c>
+      <c r="B173" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N149 N166:N1048576">
+  <conditionalFormatting sqref="N1:N149 N174:N1048576">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5435,7 +5695,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5443,7 +5703,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5451,7 +5711,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N161">
+  <conditionalFormatting sqref="N166:N169">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5459,7 +5719,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:N165">
+  <conditionalFormatting sqref="N170:N173">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB54E70-D627-8B4B-B925-E19A8EA397AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A24DBD-2F29-554C-A365-C2F05B6C853C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L169" sqref="L169"/>
+      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5602,16 +5602,36 @@
       <c r="C170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
+      <c r="D170" s="5">
+        <v>140</v>
+      </c>
+      <c r="E170" s="5">
+        <v>219</v>
+      </c>
+      <c r="F170" s="5">
+        <v>1333</v>
+      </c>
+      <c r="G170" s="5">
+        <v>1247</v>
+      </c>
+      <c r="H170" s="5">
+        <v>747</v>
+      </c>
+      <c r="I170" s="5">
+        <v>831</v>
+      </c>
+      <c r="J170" s="5">
+        <v>1838</v>
+      </c>
+      <c r="K170" s="5">
+        <v>552</v>
+      </c>
+      <c r="L170" s="5">
+        <v>1046</v>
+      </c>
+      <c r="M170" s="5">
+        <v>7953</v>
+      </c>
       <c r="N170" s="2" t="str">
         <f t="shared" ref="N170:N172" si="41">IF(SUM(D170:L170)=M170,"gleich","ungleich")</f>
         <v>gleich</v>
@@ -5627,7 +5647,18 @@
       <c r="C171" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M171" s="13"/>
+      <c r="G171" s="1">
+        <v>2</v>
+      </c>
+      <c r="J171" s="1">
+        <v>2</v>
+      </c>
+      <c r="L171" s="1">
+        <v>5</v>
+      </c>
+      <c r="M171" s="13">
+        <v>9</v>
+      </c>
       <c r="N171" s="2" t="str">
         <f t="shared" si="41"/>
         <v>gleich</v>
@@ -5643,7 +5674,36 @@
       <c r="C172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="8"/>
+      <c r="D172" s="1">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>4</v>
+      </c>
+      <c r="G172" s="1">
+        <v>13</v>
+      </c>
+      <c r="H172" s="1">
+        <v>4</v>
+      </c>
+      <c r="I172" s="1">
+        <v>17</v>
+      </c>
+      <c r="J172" s="1">
+        <v>9</v>
+      </c>
+      <c r="K172" s="1">
+        <v>1</v>
+      </c>
+      <c r="L172" s="1">
+        <v>16</v>
+      </c>
+      <c r="M172" s="8">
+        <v>68</v>
+      </c>
       <c r="N172" s="2" t="str">
         <f t="shared" si="41"/>
         <v>gleich</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A24DBD-2F29-554C-A365-C2F05B6C853C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004371A-5EDC-DF43-8421-420715DAB78B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$173</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -589,8 +592,8 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5590,7 +5593,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
-      <c r="M169" s="12"/>
+      <c r="M169" s="12">
+        <v>3299</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -5728,9 +5733,12 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
       <c r="L173" s="11"/>
-      <c r="M173" s="12"/>
+      <c r="M173" s="12">
+        <v>3299</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N173" xr:uid="{9829A85C-5C2C-B74C-9E51-D9D80FFEBBB4}"/>
   <conditionalFormatting sqref="N1:N149 N174:N1048576">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ungleich"</formula>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004371A-5EDC-DF43-8421-420715DAB78B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC0924-ABB1-0848-A2CC-B7B033FF52A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -214,7 +214,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -589,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
+      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5737,9 +5765,243 @@
         <v>3299</v>
       </c>
     </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>43919</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="5">
+        <v>151</v>
+      </c>
+      <c r="E174" s="5">
+        <v>221</v>
+      </c>
+      <c r="F174" s="5">
+        <v>1261</v>
+      </c>
+      <c r="G174" s="5">
+        <v>1398</v>
+      </c>
+      <c r="H174" s="5">
+        <v>789</v>
+      </c>
+      <c r="I174" s="5">
+        <v>856</v>
+      </c>
+      <c r="J174" s="5">
+        <v>1896</v>
+      </c>
+      <c r="K174" s="5">
+        <v>576</v>
+      </c>
+      <c r="L174" s="5">
+        <v>1066</v>
+      </c>
+      <c r="M174" s="5">
+        <v>8214</v>
+      </c>
+      <c r="N174" s="2" t="str">
+        <f t="shared" ref="N174:N176" si="42">IF(SUM(D174:L174)=M174,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B175" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2</v>
+      </c>
+      <c r="J175" s="1">
+        <v>2</v>
+      </c>
+      <c r="L175" s="1">
+        <v>5</v>
+      </c>
+      <c r="M175" s="13">
+        <v>9</v>
+      </c>
+      <c r="N175" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B176" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2</v>
+      </c>
+      <c r="E176" s="1">
+        <v>2</v>
+      </c>
+      <c r="F176" s="1">
+        <v>13</v>
+      </c>
+      <c r="G176" s="1">
+        <v>4</v>
+      </c>
+      <c r="H176" s="1">
+        <v>4</v>
+      </c>
+      <c r="I176" s="1">
+        <v>17</v>
+      </c>
+      <c r="J176" s="1">
+        <v>9</v>
+      </c>
+      <c r="K176" s="1">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1">
+        <v>16</v>
+      </c>
+      <c r="M176" s="8">
+        <v>68</v>
+      </c>
+      <c r="N176" s="2" t="str">
+        <f t="shared" si="42"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B177" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="12">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>43919</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="2" t="str">
+        <f t="shared" ref="N178:N180" si="43">IF(SUM(D178:L178)=M178,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B179" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M179" s="13"/>
+      <c r="N179" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B180" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M180" s="8"/>
+      <c r="N180" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>43919</v>
+      </c>
+      <c r="B181" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N173" xr:uid="{9829A85C-5C2C-B74C-9E51-D9D80FFEBBB4}"/>
-  <conditionalFormatting sqref="N1:N149 N174:N1048576">
+  <conditionalFormatting sqref="N1:N149 N182:N1048576">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5747,7 +6009,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5755,7 +6017,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5763,7 +6025,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N161">
+  <conditionalFormatting sqref="N166:N169">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5771,7 +6033,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:N165">
+  <conditionalFormatting sqref="N170:N173">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5779,7 +6041,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N166:N169">
+  <conditionalFormatting sqref="N174:N177">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -5787,7 +6049,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N170:N173">
+  <conditionalFormatting sqref="N178:N181">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC0924-ABB1-0848-A2CC-B7B033FF52A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD60E9-6DB7-394F-B48F-78125870472D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
+      <selection pane="bottomLeft" activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5680,8 +5680,11 @@
       <c r="C171" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F171" s="1">
+        <v>2</v>
+      </c>
       <c r="G171" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" s="1">
         <v>2</v>
@@ -5714,10 +5717,10 @@
         <v>2</v>
       </c>
       <c r="F172" s="1">
+        <v>13</v>
+      </c>
+      <c r="G172" s="1">
         <v>4</v>
-      </c>
-      <c r="G172" s="1">
-        <v>13</v>
       </c>
       <c r="H172" s="1">
         <v>4</v>
@@ -5924,10 +5927,12 @@
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
+      <c r="M178" s="5">
+        <v>7971</v>
+      </c>
       <c r="N178" s="2" t="str">
         <f t="shared" ref="N178:N180" si="43">IF(SUM(D178:L178)=M178,"gleich","ungleich")</f>
-        <v>gleich</v>
+        <v>ungleich</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -5940,10 +5945,12 @@
       <c r="C179" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M179" s="13"/>
+      <c r="M179" s="13">
+        <v>479</v>
+      </c>
       <c r="N179" s="2" t="str">
         <f t="shared" si="43"/>
-        <v>gleich</v>
+        <v>ungleich</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -5956,10 +5963,12 @@
       <c r="C180" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="8"/>
+      <c r="M180" s="8">
+        <v>86</v>
+      </c>
       <c r="N180" s="2" t="str">
         <f t="shared" si="43"/>
-        <v>gleich</v>
+        <v>ungleich</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Eigene_DATEN\private_Projekte\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD60E9-6DB7-394F-B48F-78125870472D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="465" windowWidth="19200" windowHeight="22365"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$173</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +213,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -616,23 +643,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5" style="1"/>
-    <col min="4" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2"/>
-    <col min="15" max="16384" width="11.5" style="1"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="13" width="5.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43886</v>
       </c>
@@ -705,7 +732,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43886</v>
       </c>
@@ -723,7 +750,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43886</v>
       </c>
@@ -741,7 +768,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43886</v>
       </c>
@@ -764,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43887</v>
       </c>
@@ -793,7 +820,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43887</v>
       </c>
@@ -811,7 +838,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43887</v>
       </c>
@@ -829,7 +856,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43887</v>
       </c>
@@ -852,7 +879,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43888</v>
       </c>
@@ -883,7 +910,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43888</v>
       </c>
@@ -901,7 +928,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43888</v>
       </c>
@@ -919,7 +946,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43888</v>
       </c>
@@ -942,7 +969,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43889</v>
       </c>
@@ -973,7 +1000,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43889</v>
       </c>
@@ -991,7 +1018,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43889</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43889</v>
       </c>
@@ -1032,7 +1059,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43890</v>
       </c>
@@ -1082,7 +1109,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43890</v>
       </c>
@@ -1100,7 +1127,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43890</v>
       </c>
@@ -1118,7 +1145,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>43890</v>
       </c>
@@ -1141,7 +1168,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43891</v>
       </c>
@@ -1192,7 +1219,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43891</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43891</v>
       </c>
@@ -1228,7 +1255,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43891</v>
       </c>
@@ -1251,7 +1278,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43892</v>
       </c>
@@ -1300,7 +1327,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43892</v>
       </c>
@@ -1318,7 +1345,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43892</v>
       </c>
@@ -1336,7 +1363,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>43892</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43893</v>
       </c>
@@ -1404,7 +1431,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43893</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43893</v>
       </c>
@@ -1440,7 +1467,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43893</v>
       </c>
@@ -1463,7 +1490,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43894</v>
       </c>
@@ -1510,7 +1537,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43894</v>
       </c>
@@ -1531,7 +1558,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43894</v>
       </c>
@@ -1549,7 +1576,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43894</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43895</v>
       </c>
@@ -1617,7 +1644,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43895</v>
       </c>
@@ -1638,7 +1665,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43895</v>
       </c>
@@ -1656,7 +1683,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>43895</v>
       </c>
@@ -1679,7 +1706,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1724,7 +1751,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43896</v>
       </c>
@@ -1745,7 +1772,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43896</v>
       </c>
@@ -1763,7 +1790,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43896</v>
       </c>
@@ -1786,7 +1813,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43897</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43897</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -1870,7 +1897,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43897</v>
       </c>
@@ -1893,7 +1920,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43898</v>
       </c>
@@ -1938,7 +1965,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43898</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43898</v>
       </c>
@@ -1977,7 +2004,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>43898</v>
       </c>
@@ -2000,7 +2027,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43899</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43899</v>
       </c>
@@ -2066,7 +2093,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43899</v>
       </c>
@@ -2084,7 +2111,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>43899</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -2152,7 +2179,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43900</v>
       </c>
@@ -2176,7 +2203,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43900</v>
       </c>
@@ -2194,7 +2221,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>43900</v>
       </c>
@@ -2217,7 +2244,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43901</v>
       </c>
@@ -2262,7 +2289,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43901</v>
       </c>
@@ -2286,7 +2313,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43901</v>
       </c>
@@ -2304,7 +2331,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>43901</v>
       </c>
@@ -2327,7 +2354,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43902</v>
       </c>
@@ -2372,7 +2399,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43902</v>
       </c>
@@ -2396,7 +2423,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43902</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>43902</v>
       </c>
@@ -2440,7 +2467,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43903</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43903</v>
       </c>
@@ -2512,7 +2539,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43903</v>
       </c>
@@ -2533,7 +2560,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>43903</v>
       </c>
@@ -2556,7 +2583,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43904</v>
       </c>
@@ -2601,7 +2628,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43904</v>
       </c>
@@ -2628,7 +2655,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43904</v>
       </c>
@@ -2649,7 +2676,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>43904</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43905</v>
       </c>
@@ -2717,7 +2744,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>43905</v>
       </c>
@@ -2744,7 +2771,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>43905</v>
       </c>
@@ -2765,7 +2792,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>43905</v>
       </c>
@@ -2788,7 +2815,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43906</v>
       </c>
@@ -2833,7 +2860,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>43906</v>
       </c>
@@ -2860,7 +2887,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43906</v>
       </c>
@@ -2884,7 +2911,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>43906</v>
       </c>
@@ -2907,7 +2934,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43907</v>
       </c>
@@ -2952,7 +2979,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>43907</v>
       </c>
@@ -2979,7 +3006,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43907</v>
       </c>
@@ -3003,7 +3030,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>43907</v>
       </c>
@@ -3026,7 +3053,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43908</v>
       </c>
@@ -3071,7 +3098,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>43908</v>
       </c>
@@ -3098,7 +3125,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>43908</v>
       </c>
@@ -3122,7 +3149,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>43908</v>
       </c>
@@ -3145,7 +3172,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43909</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>43909</v>
       </c>
@@ -3217,7 +3244,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>43909</v>
       </c>
@@ -3241,7 +3268,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>43909</v>
       </c>
@@ -3264,7 +3291,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43909</v>
       </c>
@@ -3309,7 +3336,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>43909</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>43909</v>
       </c>
@@ -3363,7 +3390,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>43909</v>
       </c>
@@ -3386,7 +3413,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43910</v>
       </c>
@@ -3431,7 +3458,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>43910</v>
       </c>
@@ -3458,7 +3485,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>43910</v>
       </c>
@@ -3485,7 +3512,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>43910</v>
       </c>
@@ -3508,7 +3535,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43910</v>
       </c>
@@ -3553,7 +3580,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>43910</v>
       </c>
@@ -3580,7 +3607,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>43910</v>
       </c>
@@ -3607,7 +3634,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>43910</v>
       </c>
@@ -3630,7 +3657,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43911</v>
       </c>
@@ -3675,7 +3702,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>43911</v>
       </c>
@@ -3702,7 +3729,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>43911</v>
       </c>
@@ -3729,7 +3756,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>43911</v>
       </c>
@@ -3752,7 +3779,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43911</v>
       </c>
@@ -3797,7 +3824,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>43911</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>43911</v>
       </c>
@@ -3851,7 +3878,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>43911</v>
       </c>
@@ -3874,7 +3901,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43912</v>
       </c>
@@ -3919,7 +3946,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>43912</v>
       </c>
@@ -3946,7 +3973,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>43912</v>
       </c>
@@ -3976,7 +4003,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>43912</v>
       </c>
@@ -3999,7 +4026,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43912</v>
       </c>
@@ -4044,7 +4071,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>43912</v>
       </c>
@@ -4071,7 +4098,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>43912</v>
       </c>
@@ -4107,7 +4134,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>43912</v>
       </c>
@@ -4130,7 +4157,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43913</v>
       </c>
@@ -4175,7 +4202,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>43913</v>
       </c>
@@ -4202,7 +4229,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>43913</v>
       </c>
@@ -4238,7 +4265,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>43913</v>
       </c>
@@ -4261,7 +4288,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43913</v>
       </c>
@@ -4306,7 +4333,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>43913</v>
       </c>
@@ -4333,7 +4360,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>43913</v>
       </c>
@@ -4372,7 +4399,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>43913</v>
       </c>
@@ -4395,7 +4422,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43914</v>
       </c>
@@ -4440,7 +4467,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>43914</v>
       </c>
@@ -4467,7 +4494,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>43914</v>
       </c>
@@ -4506,7 +4533,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>43914</v>
       </c>
@@ -4529,7 +4556,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43914</v>
       </c>
@@ -4574,7 +4601,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>43914</v>
       </c>
@@ -4601,7 +4628,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>43914</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>43914</v>
       </c>
@@ -4663,7 +4690,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43915</v>
       </c>
@@ -4708,7 +4735,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>43915</v>
       </c>
@@ -4735,7 +4762,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>43915</v>
       </c>
@@ -4774,7 +4801,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>43915</v>
       </c>
@@ -4797,7 +4824,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43915</v>
       </c>
@@ -4842,7 +4869,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>43915</v>
       </c>
@@ -4869,7 +4896,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>43915</v>
       </c>
@@ -4908,7 +4935,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>43915</v>
       </c>
@@ -4931,7 +4958,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43916</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>43916</v>
       </c>
@@ -5003,7 +5030,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>43916</v>
       </c>
@@ -5045,7 +5072,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>43916</v>
       </c>
@@ -5068,7 +5095,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43916</v>
       </c>
@@ -5113,7 +5140,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>43916</v>
       </c>
@@ -5140,7 +5167,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>43916</v>
       </c>
@@ -5182,7 +5209,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>43916</v>
       </c>
@@ -5205,7 +5232,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>43917</v>
       </c>
@@ -5250,7 +5277,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>43917</v>
       </c>
@@ -5277,7 +5304,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>43917</v>
       </c>
@@ -5322,7 +5349,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>43917</v>
       </c>
@@ -5345,7 +5372,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43917</v>
       </c>
@@ -5390,7 +5417,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>43917</v>
       </c>
@@ -5417,7 +5444,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>43917</v>
       </c>
@@ -5462,7 +5489,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>43917</v>
       </c>
@@ -5485,7 +5512,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43918</v>
       </c>
@@ -5530,7 +5557,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>43918</v>
       </c>
@@ -5557,7 +5584,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>43918</v>
       </c>
@@ -5602,7 +5629,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>43918</v>
       </c>
@@ -5625,7 +5652,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43918</v>
       </c>
@@ -5670,7 +5697,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>43918</v>
       </c>
@@ -5700,7 +5727,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>43918</v>
       </c>
@@ -5745,7 +5772,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>43918</v>
       </c>
@@ -5768,7 +5795,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43919</v>
       </c>
@@ -5779,25 +5806,25 @@
         <v>13</v>
       </c>
       <c r="D174" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E174" s="5">
         <v>221</v>
       </c>
       <c r="F174" s="5">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="G174" s="5">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="H174" s="5">
         <v>789</v>
       </c>
       <c r="I174" s="5">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J174" s="5">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="K174" s="5">
         <v>576</v>
@@ -5806,14 +5833,14 @@
         <v>1066</v>
       </c>
       <c r="M174" s="5">
-        <v>8214</v>
+        <v>7726</v>
       </c>
       <c r="N174" s="2" t="str">
         <f t="shared" ref="N174:N176" si="42">IF(SUM(D174:L174)=M174,"gleich","ungleich")</f>
-        <v>gleich</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>43919</v>
       </c>
@@ -5823,24 +5850,15 @@
       <c r="C175" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F175" s="1">
-        <v>2</v>
-      </c>
-      <c r="J175" s="1">
-        <v>2</v>
-      </c>
-      <c r="L175" s="1">
-        <v>5</v>
-      </c>
       <c r="M175" s="13">
-        <v>9</v>
+        <v>479</v>
       </c>
       <c r="N175" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>gleich</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>43919</v>
       </c>
@@ -5851,41 +5869,41 @@
         <v>15</v>
       </c>
       <c r="D176" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
       </c>
       <c r="F176" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G176" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H176" s="1">
         <v>4</v>
       </c>
       <c r="I176" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J176" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K176" s="1">
         <v>1</v>
       </c>
       <c r="L176" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M176" s="8">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="N176" s="2" t="str">
         <f t="shared" si="42"/>
         <v>gleich</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>43919</v>
       </c>
@@ -5904,11 +5922,9 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
-      <c r="M177" s="12">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M177" s="12"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43919</v>
       </c>
@@ -5918,24 +5934,42 @@
       <c r="C178" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
+      <c r="D178" s="5">
+        <v>156</v>
+      </c>
+      <c r="E178" s="5">
+        <v>237</v>
+      </c>
+      <c r="F178" s="5">
+        <v>1331</v>
+      </c>
+      <c r="G178" s="5">
+        <v>1444</v>
+      </c>
+      <c r="H178" s="5">
+        <v>794</v>
+      </c>
+      <c r="I178" s="5">
+        <v>896</v>
+      </c>
+      <c r="J178" s="5">
+        <v>1934</v>
+      </c>
+      <c r="K178" s="5">
+        <v>578</v>
+      </c>
+      <c r="L178" s="5">
+        <v>1080</v>
+      </c>
       <c r="M178" s="5">
-        <v>7971</v>
+        <v>791</v>
       </c>
       <c r="N178" s="2" t="str">
         <f t="shared" ref="N178:N180" si="43">IF(SUM(D178:L178)=M178,"gleich","ungleich")</f>
         <v>ungleich</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>43919</v>
       </c>
@@ -5953,7 +5987,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>43919</v>
       </c>
@@ -5963,15 +5997,42 @@
       <c r="C180" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>2</v>
+      </c>
+      <c r="F180" s="1">
+        <v>19</v>
+      </c>
+      <c r="G180" s="1">
+        <v>7</v>
+      </c>
+      <c r="H180" s="1">
+        <v>4</v>
+      </c>
+      <c r="I180" s="1">
+        <v>19</v>
+      </c>
+      <c r="J180" s="1">
+        <v>10</v>
+      </c>
+      <c r="K180" s="1">
+        <v>1</v>
+      </c>
+      <c r="L180" s="1">
+        <v>21</v>
+      </c>
       <c r="M180" s="8">
         <v>86</v>
       </c>
       <c r="N180" s="2" t="str">
         <f t="shared" si="43"/>
-        <v>ungleich</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>43919</v>
       </c>
@@ -5992,9 +6053,232 @@
       <c r="L181" s="11"/>
       <c r="M181" s="12"/>
     </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="5">
+        <v>168</v>
+      </c>
+      <c r="E182" s="5">
+        <v>244</v>
+      </c>
+      <c r="F182" s="5">
+        <v>1367</v>
+      </c>
+      <c r="G182" s="5">
+        <v>1502</v>
+      </c>
+      <c r="H182" s="5">
+        <v>845</v>
+      </c>
+      <c r="I182" s="5">
+        <v>910</v>
+      </c>
+      <c r="J182" s="5">
+        <v>1991</v>
+      </c>
+      <c r="K182" s="5">
+        <v>605</v>
+      </c>
+      <c r="L182" s="5">
+        <v>1095</v>
+      </c>
+      <c r="M182" s="5">
+        <v>8393</v>
+      </c>
+      <c r="N182" s="2" t="str">
+        <f t="shared" ref="N182:N184" si="44">IF(SUM(D182:L182)=M182,"gleich","ungleich")</f>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B183" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M183" s="13">
+        <v>479</v>
+      </c>
+      <c r="N183" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B184" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="1">
+        <v>2</v>
+      </c>
+      <c r="F184" s="1">
+        <v>19</v>
+      </c>
+      <c r="G184" s="1">
+        <v>7</v>
+      </c>
+      <c r="H184" s="1">
+        <v>4</v>
+      </c>
+      <c r="I184" s="1">
+        <v>19</v>
+      </c>
+      <c r="J184" s="1">
+        <v>10</v>
+      </c>
+      <c r="K184" s="1">
+        <v>1</v>
+      </c>
+      <c r="L184" s="1">
+        <v>21</v>
+      </c>
+      <c r="M184" s="8">
+        <v>86</v>
+      </c>
+      <c r="N184" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B185" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="12"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="2" t="str">
+        <f t="shared" ref="N186:N188" si="45">IF(SUM(D186:L186)=M186,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B187" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M187" s="13"/>
+      <c r="N187" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B188" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M188" s="8"/>
+      <c r="N188" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>43920</v>
+      </c>
+      <c r="B189" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N173" xr:uid="{9829A85C-5C2C-B74C-9E51-D9D80FFEBBB4}"/>
-  <conditionalFormatting sqref="N1:N149 N182:N1048576">
+  <autoFilter ref="A1:N173"/>
+  <conditionalFormatting sqref="N1:N149 N190:N1048576">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6002,7 +6286,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6010,7 +6294,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6018,7 +6302,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N161">
+  <conditionalFormatting sqref="N166:N169">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6026,7 +6310,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:N165">
+  <conditionalFormatting sqref="N170:N173">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6034,7 +6318,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N166:N169">
+  <conditionalFormatting sqref="N174:N177">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6042,7 +6326,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N170:N173">
+  <conditionalFormatting sqref="N178:N181">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6050,7 +6334,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N174:N177">
+  <conditionalFormatting sqref="N182:N185">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6058,7 +6342,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N178:N181">
+  <conditionalFormatting sqref="N186:N189">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Eigene_DATEN\private_Projekte\COVID-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CB27D-A3F0-E34E-AD26-DEE5D0EEF007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="465" windowWidth="19200" windowHeight="22365"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$173</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +214,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -643,23 +672,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L185" sqref="L185"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="13" width="5.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.5" style="1"/>
+    <col min="4" max="13" width="5.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2"/>
+    <col min="15" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43886</v>
       </c>
@@ -732,7 +761,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43886</v>
       </c>
@@ -750,7 +779,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43886</v>
       </c>
@@ -768,7 +797,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43886</v>
       </c>
@@ -791,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43887</v>
       </c>
@@ -820,7 +849,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43887</v>
       </c>
@@ -838,7 +867,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43887</v>
       </c>
@@ -856,7 +885,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43887</v>
       </c>
@@ -879,7 +908,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43888</v>
       </c>
@@ -910,7 +939,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43888</v>
       </c>
@@ -928,7 +957,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43888</v>
       </c>
@@ -946,7 +975,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43888</v>
       </c>
@@ -969,7 +998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43889</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43889</v>
       </c>
@@ -1018,7 +1047,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43889</v>
       </c>
@@ -1036,7 +1065,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43889</v>
       </c>
@@ -1059,7 +1088,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43890</v>
       </c>
@@ -1109,7 +1138,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43890</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43890</v>
       </c>
@@ -1145,7 +1174,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43890</v>
       </c>
@@ -1168,7 +1197,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43891</v>
       </c>
@@ -1219,7 +1248,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43891</v>
       </c>
@@ -1237,7 +1266,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43891</v>
       </c>
@@ -1255,7 +1284,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43891</v>
       </c>
@@ -1278,7 +1307,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43892</v>
       </c>
@@ -1327,7 +1356,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43892</v>
       </c>
@@ -1345,7 +1374,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43892</v>
       </c>
@@ -1363,7 +1392,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>43892</v>
       </c>
@@ -1386,7 +1415,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43893</v>
       </c>
@@ -1431,7 +1460,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>43893</v>
       </c>
@@ -1449,7 +1478,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>43893</v>
       </c>
@@ -1467,7 +1496,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>43893</v>
       </c>
@@ -1490,7 +1519,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43894</v>
       </c>
@@ -1537,7 +1566,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>43894</v>
       </c>
@@ -1558,7 +1587,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>43894</v>
       </c>
@@ -1576,7 +1605,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>43894</v>
       </c>
@@ -1599,7 +1628,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43895</v>
       </c>
@@ -1644,7 +1673,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>43895</v>
       </c>
@@ -1665,7 +1694,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43895</v>
       </c>
@@ -1683,7 +1712,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>43895</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1751,7 +1780,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>43896</v>
       </c>
@@ -1772,7 +1801,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43896</v>
       </c>
@@ -1790,7 +1819,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>43896</v>
       </c>
@@ -1813,7 +1842,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43897</v>
       </c>
@@ -1858,7 +1887,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43897</v>
       </c>
@@ -1879,7 +1908,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>43897</v>
       </c>
@@ -1920,7 +1949,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43898</v>
       </c>
@@ -1965,7 +1994,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>43898</v>
       </c>
@@ -1986,7 +2015,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>43898</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>43898</v>
       </c>
@@ -2027,7 +2056,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43899</v>
       </c>
@@ -2072,7 +2101,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43899</v>
       </c>
@@ -2093,7 +2122,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43899</v>
       </c>
@@ -2111,7 +2140,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>43899</v>
       </c>
@@ -2134,7 +2163,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43900</v>
       </c>
@@ -2203,7 +2232,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43900</v>
       </c>
@@ -2221,7 +2250,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>43900</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43901</v>
       </c>
@@ -2289,7 +2318,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43901</v>
       </c>
@@ -2313,7 +2342,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>43901</v>
       </c>
@@ -2331,7 +2360,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>43901</v>
       </c>
@@ -2354,7 +2383,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43902</v>
       </c>
@@ -2399,7 +2428,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>43902</v>
       </c>
@@ -2423,7 +2452,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>43902</v>
       </c>
@@ -2444,7 +2473,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>43902</v>
       </c>
@@ -2467,7 +2496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43903</v>
       </c>
@@ -2512,7 +2541,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>43903</v>
       </c>
@@ -2539,7 +2568,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>43903</v>
       </c>
@@ -2560,7 +2589,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>43903</v>
       </c>
@@ -2583,7 +2612,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43904</v>
       </c>
@@ -2628,7 +2657,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>43904</v>
       </c>
@@ -2655,7 +2684,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>43904</v>
       </c>
@@ -2676,7 +2705,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>43904</v>
       </c>
@@ -2699,7 +2728,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43905</v>
       </c>
@@ -2744,7 +2773,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>43905</v>
       </c>
@@ -2771,7 +2800,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>43905</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>43905</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43906</v>
       </c>
@@ -2860,7 +2889,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>43906</v>
       </c>
@@ -2887,7 +2916,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>43906</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>43906</v>
       </c>
@@ -2934,7 +2963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43907</v>
       </c>
@@ -2979,7 +3008,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>43907</v>
       </c>
@@ -3006,7 +3035,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>43907</v>
       </c>
@@ -3030,7 +3059,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>43907</v>
       </c>
@@ -3053,7 +3082,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43908</v>
       </c>
@@ -3098,7 +3127,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>43908</v>
       </c>
@@ -3125,7 +3154,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>43908</v>
       </c>
@@ -3149,7 +3178,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>43908</v>
       </c>
@@ -3172,7 +3201,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43909</v>
       </c>
@@ -3217,7 +3246,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>43909</v>
       </c>
@@ -3244,7 +3273,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>43909</v>
       </c>
@@ -3268,7 +3297,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>43909</v>
       </c>
@@ -3291,7 +3320,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43909</v>
       </c>
@@ -3336,7 +3365,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>43909</v>
       </c>
@@ -3363,7 +3392,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>43909</v>
       </c>
@@ -3390,7 +3419,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>43909</v>
       </c>
@@ -3413,7 +3442,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43910</v>
       </c>
@@ -3458,7 +3487,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>43910</v>
       </c>
@@ -3485,7 +3514,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>43910</v>
       </c>
@@ -3512,7 +3541,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>43910</v>
       </c>
@@ -3535,7 +3564,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>43910</v>
       </c>
@@ -3580,7 +3609,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>43910</v>
       </c>
@@ -3607,7 +3636,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>43910</v>
       </c>
@@ -3634,7 +3663,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>43910</v>
       </c>
@@ -3657,7 +3686,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>43911</v>
       </c>
@@ -3702,7 +3731,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>43911</v>
       </c>
@@ -3729,7 +3758,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>43911</v>
       </c>
@@ -3756,7 +3785,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>43911</v>
       </c>
@@ -3779,7 +3808,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>43911</v>
       </c>
@@ -3824,7 +3853,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>43911</v>
       </c>
@@ -3851,7 +3880,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>43911</v>
       </c>
@@ -3878,7 +3907,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>43911</v>
       </c>
@@ -3901,7 +3930,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>43912</v>
       </c>
@@ -3946,7 +3975,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>43912</v>
       </c>
@@ -3973,7 +4002,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>43912</v>
       </c>
@@ -4003,7 +4032,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>43912</v>
       </c>
@@ -4026,7 +4055,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43912</v>
       </c>
@@ -4071,7 +4100,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>43912</v>
       </c>
@@ -4098,7 +4127,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>43912</v>
       </c>
@@ -4134,7 +4163,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>43912</v>
       </c>
@@ -4157,7 +4186,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>43913</v>
       </c>
@@ -4202,7 +4231,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>43913</v>
       </c>
@@ -4229,7 +4258,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>43913</v>
       </c>
@@ -4265,7 +4294,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>43913</v>
       </c>
@@ -4288,7 +4317,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>43913</v>
       </c>
@@ -4333,7 +4362,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>43913</v>
       </c>
@@ -4360,7 +4389,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>43913</v>
       </c>
@@ -4399,7 +4428,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>43913</v>
       </c>
@@ -4422,7 +4451,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>43914</v>
       </c>
@@ -4467,7 +4496,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>43914</v>
       </c>
@@ -4494,7 +4523,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>43914</v>
       </c>
@@ -4533,7 +4562,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>43914</v>
       </c>
@@ -4556,7 +4585,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>43914</v>
       </c>
@@ -4601,7 +4630,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>43914</v>
       </c>
@@ -4628,7 +4657,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>43914</v>
       </c>
@@ -4667,7 +4696,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>43914</v>
       </c>
@@ -4690,7 +4719,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>43915</v>
       </c>
@@ -4735,7 +4764,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>43915</v>
       </c>
@@ -4762,7 +4791,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>43915</v>
       </c>
@@ -4801,7 +4830,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>43915</v>
       </c>
@@ -4824,7 +4853,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>43915</v>
       </c>
@@ -4869,7 +4898,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>43915</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>43915</v>
       </c>
@@ -4935,7 +4964,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>43915</v>
       </c>
@@ -4958,7 +4987,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>43916</v>
       </c>
@@ -5003,7 +5032,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>43916</v>
       </c>
@@ -5030,7 +5059,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>43916</v>
       </c>
@@ -5072,7 +5101,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>43916</v>
       </c>
@@ -5095,7 +5124,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>43916</v>
       </c>
@@ -5140,7 +5169,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>43916</v>
       </c>
@@ -5167,7 +5196,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>43916</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>43916</v>
       </c>
@@ -5232,7 +5261,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>43917</v>
       </c>
@@ -5277,7 +5306,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>43917</v>
       </c>
@@ -5304,7 +5333,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>43917</v>
       </c>
@@ -5349,7 +5378,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>43917</v>
       </c>
@@ -5372,7 +5401,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>43917</v>
       </c>
@@ -5417,7 +5446,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>43917</v>
       </c>
@@ -5444,7 +5473,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>43917</v>
       </c>
@@ -5489,7 +5518,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>43917</v>
       </c>
@@ -5512,7 +5541,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>43918</v>
       </c>
@@ -5557,7 +5586,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>43918</v>
       </c>
@@ -5584,7 +5613,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>43918</v>
       </c>
@@ -5629,7 +5658,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>43918</v>
       </c>
@@ -5652,7 +5681,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>43918</v>
       </c>
@@ -5697,7 +5726,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>43918</v>
       </c>
@@ -5727,7 +5756,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>43918</v>
       </c>
@@ -5772,7 +5801,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>43918</v>
       </c>
@@ -5795,7 +5824,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>43919</v>
       </c>
@@ -5806,31 +5835,31 @@
         <v>13</v>
       </c>
       <c r="D174" s="5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E174" s="5">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F174" s="5">
-        <v>1257</v>
+        <v>1214</v>
       </c>
       <c r="G174" s="5">
-        <v>1395</v>
+        <v>1331</v>
       </c>
       <c r="H174" s="5">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="I174" s="5">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J174" s="5">
-        <v>1897</v>
+        <v>1671</v>
       </c>
       <c r="K174" s="5">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L174" s="5">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="M174" s="5">
         <v>7726</v>
@@ -5840,7 +5869,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>43919</v>
       </c>
@@ -5849,6 +5878,33 @@
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D175" s="1">
+        <v>4</v>
+      </c>
+      <c r="E175" s="1">
+        <v>8</v>
+      </c>
+      <c r="F175" s="1">
+        <v>43</v>
+      </c>
+      <c r="G175" s="1">
+        <v>64</v>
+      </c>
+      <c r="H175" s="1">
+        <v>34</v>
+      </c>
+      <c r="I175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J175" s="1">
+        <v>226</v>
+      </c>
+      <c r="K175" s="1">
+        <v>12</v>
+      </c>
+      <c r="L175" s="1">
+        <v>11</v>
       </c>
       <c r="M175" s="13">
         <v>479</v>
@@ -5858,7 +5914,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>43919</v>
       </c>
@@ -5903,7 +5959,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>43919</v>
       </c>
@@ -5922,9 +5978,11 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
-      <c r="M177" s="12"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M177" s="12">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>43919</v>
       </c>
@@ -5935,31 +5993,31 @@
         <v>13</v>
       </c>
       <c r="D178" s="5">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E178" s="5">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F178" s="5">
-        <v>1331</v>
+        <v>1288</v>
       </c>
       <c r="G178" s="5">
-        <v>1444</v>
+        <v>1380</v>
       </c>
       <c r="H178" s="5">
-        <v>794</v>
+        <v>760</v>
       </c>
       <c r="I178" s="5">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J178" s="5">
-        <v>1934</v>
+        <v>1708</v>
       </c>
       <c r="K178" s="5">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="L178" s="5">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="M178" s="5">
         <v>791</v>
@@ -5969,7 +6027,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>43919</v>
       </c>
@@ -5978,6 +6036,33 @@
       </c>
       <c r="C179" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D179" s="1">
+        <v>4</v>
+      </c>
+      <c r="E179" s="1">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>43</v>
+      </c>
+      <c r="G179" s="1">
+        <v>64</v>
+      </c>
+      <c r="H179" s="1">
+        <v>34</v>
+      </c>
+      <c r="I179" s="1">
+        <v>1</v>
+      </c>
+      <c r="J179" s="1">
+        <v>226</v>
+      </c>
+      <c r="K179" s="1">
+        <v>12</v>
+      </c>
+      <c r="L179" s="1">
+        <v>11</v>
       </c>
       <c r="M179" s="13">
         <v>479</v>
@@ -5987,7 +6072,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>43919</v>
       </c>
@@ -6032,7 +6117,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>43919</v>
       </c>
@@ -6051,9 +6136,11 @@
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
-      <c r="M181" s="12"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M181" s="12">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>43920</v>
       </c>
@@ -6064,41 +6151,41 @@
         <v>13</v>
       </c>
       <c r="D182" s="5">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E182" s="5">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F182" s="5">
-        <v>1367</v>
+        <v>1281</v>
       </c>
       <c r="G182" s="5">
-        <v>1502</v>
+        <v>1401</v>
       </c>
       <c r="H182" s="5">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="I182" s="5">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="J182" s="5">
-        <v>1991</v>
+        <v>1721</v>
       </c>
       <c r="K182" s="5">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="L182" s="5">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="M182" s="5">
-        <v>8393</v>
+        <v>8248</v>
       </c>
       <c r="N182" s="2" t="str">
         <f t="shared" ref="N182:N184" si="44">IF(SUM(D182:L182)=M182,"gleich","ungleich")</f>
         <v>ungleich</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>43920</v>
       </c>
@@ -6107,6 +6194,33 @@
       </c>
       <c r="C183" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D183" s="1">
+        <v>4</v>
+      </c>
+      <c r="E183" s="1">
+        <v>13</v>
+      </c>
+      <c r="F183" s="1">
+        <v>86</v>
+      </c>
+      <c r="G183" s="1">
+        <v>101</v>
+      </c>
+      <c r="H183" s="1">
+        <v>34</v>
+      </c>
+      <c r="I183" s="1">
+        <v>28</v>
+      </c>
+      <c r="J183" s="1">
+        <v>270</v>
+      </c>
+      <c r="K183" s="1">
+        <v>47</v>
+      </c>
+      <c r="L183" s="1">
+        <v>11</v>
       </c>
       <c r="M183" s="13">
         <v>479</v>
@@ -6116,7 +6230,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>43920</v>
       </c>
@@ -6161,7 +6275,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>43920</v>
       </c>
@@ -6180,9 +6294,11 @@
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
-      <c r="M185" s="12"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M185" s="12">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>43920</v>
       </c>
@@ -6192,22 +6308,42 @@
       <c r="C186" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
+      <c r="D186" s="5">
+        <v>166</v>
+      </c>
+      <c r="E186" s="5">
+        <v>246</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1419</v>
+      </c>
+      <c r="G186" s="5">
+        <v>1427</v>
+      </c>
+      <c r="H186" s="5">
+        <v>805</v>
+      </c>
+      <c r="I186" s="5">
+        <v>906</v>
+      </c>
+      <c r="J186" s="5">
+        <v>1922</v>
+      </c>
+      <c r="K186" s="5">
+        <v>568</v>
+      </c>
+      <c r="L186" s="5">
+        <v>1174</v>
+      </c>
+      <c r="M186" s="5">
+        <v>8633</v>
+      </c>
       <c r="N186" s="2" t="str">
-        <f t="shared" ref="N186:N188" si="45">IF(SUM(D186:L186)=M186,"gleich","ungleich")</f>
-        <v>gleich</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N186:N189" si="45">IF(SUM(D186:L186)=M186,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>43920</v>
       </c>
@@ -6217,13 +6353,42 @@
       <c r="C187" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M187" s="13"/>
+      <c r="D187" s="1">
+        <v>10</v>
+      </c>
+      <c r="E187" s="1">
+        <v>13</v>
+      </c>
+      <c r="F187" s="1">
+        <v>86</v>
+      </c>
+      <c r="G187" s="1">
+        <v>101</v>
+      </c>
+      <c r="H187" s="1">
+        <v>43</v>
+      </c>
+      <c r="I187" s="1">
+        <v>28</v>
+      </c>
+      <c r="J187" s="1">
+        <v>270</v>
+      </c>
+      <c r="K187" s="1">
+        <v>47</v>
+      </c>
+      <c r="L187" s="1">
+        <v>38</v>
+      </c>
+      <c r="M187" s="13">
+        <v>636</v>
+      </c>
       <c r="N187" s="2" t="str">
         <f t="shared" si="45"/>
         <v>gleich</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>43920</v>
       </c>
@@ -6233,13 +6398,42 @@
       <c r="C188" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M188" s="8"/>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+      <c r="E188" s="1">
+        <v>2</v>
+      </c>
+      <c r="F188" s="1">
+        <v>28</v>
+      </c>
+      <c r="G188" s="1">
+        <v>7</v>
+      </c>
+      <c r="H188" s="1">
+        <v>7</v>
+      </c>
+      <c r="I188" s="1">
+        <v>24</v>
+      </c>
+      <c r="J188" s="1">
+        <v>13</v>
+      </c>
+      <c r="K188" s="1">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1">
+        <v>23</v>
+      </c>
+      <c r="M188" s="8">
+        <v>108</v>
+      </c>
       <c r="N188" s="2" t="str">
         <f t="shared" si="45"/>
         <v>gleich</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>43920</v>
       </c>
@@ -6258,11 +6452,357 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
-      <c r="M189" s="12"/>
+      <c r="M189" s="12">
+        <v>3014</v>
+      </c>
+      <c r="N189" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="5">
+        <v>168</v>
+      </c>
+      <c r="E190" s="5">
+        <v>252</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1437</v>
+      </c>
+      <c r="G190" s="5">
+        <v>1455</v>
+      </c>
+      <c r="H190" s="5">
+        <v>859</v>
+      </c>
+      <c r="I190" s="5">
+        <v>948</v>
+      </c>
+      <c r="J190" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K190" s="5">
+        <v>578</v>
+      </c>
+      <c r="L190" s="5">
+        <v>1242</v>
+      </c>
+      <c r="M190" s="5">
+        <v>8890</v>
+      </c>
+      <c r="N190" s="2" t="str">
+        <f t="shared" ref="N190:N193" si="46">IF(SUM(D190:L190)=M190,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B191" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1">
+        <v>10</v>
+      </c>
+      <c r="E191" s="1">
+        <v>13</v>
+      </c>
+      <c r="F191" s="1">
+        <v>86</v>
+      </c>
+      <c r="G191" s="1">
+        <v>101</v>
+      </c>
+      <c r="H191" s="1">
+        <v>43</v>
+      </c>
+      <c r="I191" s="1">
+        <v>28</v>
+      </c>
+      <c r="J191" s="1">
+        <v>270</v>
+      </c>
+      <c r="K191" s="1">
+        <v>47</v>
+      </c>
+      <c r="L191" s="1">
+        <v>38</v>
+      </c>
+      <c r="M191" s="13">
+        <v>636</v>
+      </c>
+      <c r="N191" s="2" t="str">
+        <f t="shared" si="46"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B192" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1">
+        <v>2</v>
+      </c>
+      <c r="F192" s="1">
+        <v>28</v>
+      </c>
+      <c r="G192" s="1">
+        <v>7</v>
+      </c>
+      <c r="H192" s="1">
+        <v>7</v>
+      </c>
+      <c r="I192" s="1">
+        <v>24</v>
+      </c>
+      <c r="J192" s="1">
+        <v>13</v>
+      </c>
+      <c r="K192" s="1">
+        <v>1</v>
+      </c>
+      <c r="L192" s="1">
+        <v>23</v>
+      </c>
+      <c r="M192" s="8">
+        <v>108</v>
+      </c>
+      <c r="N192" s="2" t="str">
+        <f t="shared" si="46"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B193" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="12">
+        <v>2889</v>
+      </c>
+      <c r="N193" s="2" t="str">
+        <f t="shared" si="46"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="5">
+        <v>172</v>
+      </c>
+      <c r="E194" s="5">
+        <v>258</v>
+      </c>
+      <c r="F194" s="5">
+        <v>1519</v>
+      </c>
+      <c r="G194" s="5">
+        <v>1501</v>
+      </c>
+      <c r="H194" s="5">
+        <v>865</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1002</v>
+      </c>
+      <c r="J194" s="5">
+        <v>2068</v>
+      </c>
+      <c r="K194" s="5">
+        <v>597</v>
+      </c>
+      <c r="L194" s="5">
+        <v>1342</v>
+      </c>
+      <c r="M194" s="5">
+        <v>8865</v>
+      </c>
+      <c r="N194" s="2" t="str">
+        <f t="shared" ref="N194:N197" si="47">IF(SUM(D194:L194)=M194,"gleich","ungleich")</f>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B195" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="1">
+        <v>10</v>
+      </c>
+      <c r="E195" s="1">
+        <v>13</v>
+      </c>
+      <c r="F195" s="1">
+        <v>86</v>
+      </c>
+      <c r="G195" s="1">
+        <v>101</v>
+      </c>
+      <c r="H195" s="1">
+        <v>43</v>
+      </c>
+      <c r="I195" s="1">
+        <v>28</v>
+      </c>
+      <c r="J195" s="1">
+        <v>270</v>
+      </c>
+      <c r="K195" s="1">
+        <v>47</v>
+      </c>
+      <c r="L195" s="1">
+        <v>38</v>
+      </c>
+      <c r="M195" s="13">
+        <v>1095</v>
+      </c>
+      <c r="N195" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B196" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="1">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1">
+        <v>2</v>
+      </c>
+      <c r="F196" s="1">
+        <v>28</v>
+      </c>
+      <c r="G196" s="1">
+        <v>10</v>
+      </c>
+      <c r="H196" s="1">
+        <v>9</v>
+      </c>
+      <c r="I196" s="1">
+        <v>30</v>
+      </c>
+      <c r="J196" s="1">
+        <v>19</v>
+      </c>
+      <c r="K196" s="1">
+        <v>2</v>
+      </c>
+      <c r="L196" s="1">
+        <v>25</v>
+      </c>
+      <c r="M196" s="8">
+        <v>128</v>
+      </c>
+      <c r="N196" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B197" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="12">
+        <v>2889</v>
+      </c>
+      <c r="N197" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>ungleich</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N173"/>
-  <conditionalFormatting sqref="N1:N149 N190:N1048576">
+  <autoFilter ref="A1:N173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="N1:N149 N198:N1048576">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6270,7 +6810,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6278,7 +6818,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6286,7 +6826,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N161">
+  <conditionalFormatting sqref="N166:N169">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6294,7 +6834,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:N165">
+  <conditionalFormatting sqref="N170:N173">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6302,7 +6842,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N166:N169">
+  <conditionalFormatting sqref="N174:N177">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6310,7 +6850,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N170:N173">
+  <conditionalFormatting sqref="N178:N181">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6318,7 +6858,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N174:N177">
+  <conditionalFormatting sqref="N182:N185">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6326,7 +6866,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N178:N181">
+  <conditionalFormatting sqref="N186:N189">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6334,7 +6874,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N185">
+  <conditionalFormatting sqref="N190:N193">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6342,7 +6882,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N186:N189">
+  <conditionalFormatting sqref="N194:N197">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansteinfeld/SynologyDrive/GIT/COVID-19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Eigene_DATEN\private_Projekte\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CB27D-A3F0-E34E-AD26-DEE5D0EEF007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="465" windowWidth="19200" windowHeight="22365"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$173</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +213,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -672,23 +699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S182" sqref="S182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5" style="1"/>
-    <col min="4" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2"/>
-    <col min="15" max="16384" width="11.5" style="1"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="13" width="5.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43886</v>
       </c>
@@ -761,7 +788,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43886</v>
       </c>
@@ -779,7 +806,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43886</v>
       </c>
@@ -797,7 +824,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43886</v>
       </c>
@@ -820,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43887</v>
       </c>
@@ -849,7 +876,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43887</v>
       </c>
@@ -867,7 +894,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43887</v>
       </c>
@@ -885,7 +912,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43887</v>
       </c>
@@ -908,7 +935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43888</v>
       </c>
@@ -939,7 +966,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43888</v>
       </c>
@@ -957,7 +984,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43888</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43888</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43889</v>
       </c>
@@ -1029,7 +1056,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43889</v>
       </c>
@@ -1047,7 +1074,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43889</v>
       </c>
@@ -1065,7 +1092,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43889</v>
       </c>
@@ -1088,7 +1115,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43890</v>
       </c>
@@ -1138,7 +1165,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43890</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43890</v>
       </c>
@@ -1174,7 +1201,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>43890</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43891</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43891</v>
       </c>
@@ -1266,7 +1293,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43891</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43891</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43892</v>
       </c>
@@ -1356,7 +1383,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43892</v>
       </c>
@@ -1374,7 +1401,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43892</v>
       </c>
@@ -1392,7 +1419,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>43892</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43893</v>
       </c>
@@ -1460,7 +1487,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43893</v>
       </c>
@@ -1478,7 +1505,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43893</v>
       </c>
@@ -1496,7 +1523,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43893</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43894</v>
       </c>
@@ -1566,7 +1593,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43894</v>
       </c>
@@ -1587,7 +1614,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43894</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43894</v>
       </c>
@@ -1628,7 +1655,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43895</v>
       </c>
@@ -1673,7 +1700,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43895</v>
       </c>
@@ -1694,7 +1721,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43895</v>
       </c>
@@ -1712,7 +1739,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>43895</v>
       </c>
@@ -1735,7 +1762,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43896</v>
       </c>
@@ -1780,7 +1807,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43896</v>
       </c>
@@ -1801,7 +1828,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43896</v>
       </c>
@@ -1819,7 +1846,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43896</v>
       </c>
@@ -1842,7 +1869,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43897</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43897</v>
       </c>
@@ -1908,7 +1935,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43897</v>
       </c>
@@ -1926,7 +1953,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43897</v>
       </c>
@@ -1949,7 +1976,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43898</v>
       </c>
@@ -1994,7 +2021,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43898</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43898</v>
       </c>
@@ -2033,7 +2060,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>43898</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43899</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43899</v>
       </c>
@@ -2122,7 +2149,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43899</v>
       </c>
@@ -2140,7 +2167,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>43899</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43900</v>
       </c>
@@ -2208,7 +2235,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43900</v>
       </c>
@@ -2232,7 +2259,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43900</v>
       </c>
@@ -2250,7 +2277,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>43900</v>
       </c>
@@ -2273,7 +2300,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43901</v>
       </c>
@@ -2318,7 +2345,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43901</v>
       </c>
@@ -2342,7 +2369,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43901</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>43901</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43902</v>
       </c>
@@ -2428,7 +2455,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43902</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43902</v>
       </c>
@@ -2473,7 +2500,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>43902</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43903</v>
       </c>
@@ -2541,7 +2568,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43903</v>
       </c>
@@ -2568,7 +2595,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43903</v>
       </c>
@@ -2589,7 +2616,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>43903</v>
       </c>
@@ -2612,7 +2639,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43904</v>
       </c>
@@ -2657,7 +2684,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43904</v>
       </c>
@@ -2684,7 +2711,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43904</v>
       </c>
@@ -2705,7 +2732,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>43904</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43905</v>
       </c>
@@ -2773,7 +2800,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>43905</v>
       </c>
@@ -2800,7 +2827,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>43905</v>
       </c>
@@ -2821,7 +2848,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>43905</v>
       </c>
@@ -2844,7 +2871,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43906</v>
       </c>
@@ -2889,7 +2916,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>43906</v>
       </c>
@@ -2916,7 +2943,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>43906</v>
       </c>
@@ -2940,7 +2967,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>43906</v>
       </c>
@@ -2963,7 +2990,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43907</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>43907</v>
       </c>
@@ -3035,7 +3062,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43907</v>
       </c>
@@ -3059,7 +3086,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>43907</v>
       </c>
@@ -3082,7 +3109,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43908</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>43908</v>
       </c>
@@ -3154,7 +3181,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>43908</v>
       </c>
@@ -3178,7 +3205,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>43908</v>
       </c>
@@ -3201,7 +3228,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43909</v>
       </c>
@@ -3246,7 +3273,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>43909</v>
       </c>
@@ -3273,7 +3300,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>43909</v>
       </c>
@@ -3297,7 +3324,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>43909</v>
       </c>
@@ -3320,7 +3347,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43909</v>
       </c>
@@ -3365,7 +3392,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>43909</v>
       </c>
@@ -3392,7 +3419,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>43909</v>
       </c>
@@ -3419,7 +3446,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>43909</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43910</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>43910</v>
       </c>
@@ -3514,7 +3541,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>43910</v>
       </c>
@@ -3541,7 +3568,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>43910</v>
       </c>
@@ -3564,7 +3591,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43910</v>
       </c>
@@ -3609,7 +3636,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>43910</v>
       </c>
@@ -3636,7 +3663,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>43910</v>
       </c>
@@ -3663,7 +3690,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>43910</v>
       </c>
@@ -3686,7 +3713,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43911</v>
       </c>
@@ -3731,7 +3758,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>43911</v>
       </c>
@@ -3758,7 +3785,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>43911</v>
       </c>
@@ -3785,7 +3812,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>43911</v>
       </c>
@@ -3808,7 +3835,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43911</v>
       </c>
@@ -3853,7 +3880,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>43911</v>
       </c>
@@ -3880,7 +3907,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>43911</v>
       </c>
@@ -3907,7 +3934,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>43911</v>
       </c>
@@ -3930,7 +3957,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43912</v>
       </c>
@@ -3975,7 +4002,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>43912</v>
       </c>
@@ -4002,7 +4029,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>43912</v>
       </c>
@@ -4032,7 +4059,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>43912</v>
       </c>
@@ -4055,7 +4082,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43912</v>
       </c>
@@ -4100,7 +4127,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>43912</v>
       </c>
@@ -4127,7 +4154,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>43912</v>
       </c>
@@ -4163,7 +4190,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>43912</v>
       </c>
@@ -4186,7 +4213,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43913</v>
       </c>
@@ -4231,7 +4258,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>43913</v>
       </c>
@@ -4258,7 +4285,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>43913</v>
       </c>
@@ -4294,7 +4321,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>43913</v>
       </c>
@@ -4317,7 +4344,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43913</v>
       </c>
@@ -4362,7 +4389,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>43913</v>
       </c>
@@ -4389,7 +4416,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>43913</v>
       </c>
@@ -4428,7 +4455,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>43913</v>
       </c>
@@ -4451,7 +4478,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43914</v>
       </c>
@@ -4496,7 +4523,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>43914</v>
       </c>
@@ -4523,7 +4550,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>43914</v>
       </c>
@@ -4562,7 +4589,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>43914</v>
       </c>
@@ -4585,7 +4612,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43914</v>
       </c>
@@ -4630,7 +4657,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>43914</v>
       </c>
@@ -4657,7 +4684,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>43914</v>
       </c>
@@ -4696,7 +4723,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>43914</v>
       </c>
@@ -4719,7 +4746,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43915</v>
       </c>
@@ -4764,7 +4791,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>43915</v>
       </c>
@@ -4791,7 +4818,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>43915</v>
       </c>
@@ -4830,7 +4857,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>43915</v>
       </c>
@@ -4853,7 +4880,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43915</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>43915</v>
       </c>
@@ -4925,7 +4952,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>43915</v>
       </c>
@@ -4964,7 +4991,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>43915</v>
       </c>
@@ -4987,7 +5014,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43916</v>
       </c>
@@ -5032,7 +5059,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>43916</v>
       </c>
@@ -5059,7 +5086,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>43916</v>
       </c>
@@ -5101,7 +5128,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>43916</v>
       </c>
@@ -5124,7 +5151,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43916</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>43916</v>
       </c>
@@ -5196,7 +5223,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>43916</v>
       </c>
@@ -5238,7 +5265,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>43916</v>
       </c>
@@ -5261,7 +5288,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>43917</v>
       </c>
@@ -5306,7 +5333,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>43917</v>
       </c>
@@ -5333,7 +5360,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>43917</v>
       </c>
@@ -5378,7 +5405,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>43917</v>
       </c>
@@ -5401,7 +5428,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43917</v>
       </c>
@@ -5446,7 +5473,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>43917</v>
       </c>
@@ -5473,7 +5500,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>43917</v>
       </c>
@@ -5518,7 +5545,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>43917</v>
       </c>
@@ -5541,7 +5568,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43918</v>
       </c>
@@ -5586,7 +5613,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>43918</v>
       </c>
@@ -5613,7 +5640,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>43918</v>
       </c>
@@ -5658,7 +5685,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>43918</v>
       </c>
@@ -5681,7 +5708,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43918</v>
       </c>
@@ -5726,7 +5753,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>43918</v>
       </c>
@@ -5756,7 +5783,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>43918</v>
       </c>
@@ -5801,7 +5828,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>43918</v>
       </c>
@@ -5824,7 +5851,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43919</v>
       </c>
@@ -5869,7 +5896,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>43919</v>
       </c>
@@ -5914,7 +5941,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>43919</v>
       </c>
@@ -5959,7 +5986,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>43919</v>
       </c>
@@ -5982,7 +6009,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43919</v>
       </c>
@@ -6027,7 +6054,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>43919</v>
       </c>
@@ -6072,7 +6099,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>43919</v>
       </c>
@@ -6117,7 +6144,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>43919</v>
       </c>
@@ -6140,7 +6167,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>43920</v>
       </c>
@@ -6185,7 +6212,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>43920</v>
       </c>
@@ -6230,7 +6257,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>43920</v>
       </c>
@@ -6275,7 +6302,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>43920</v>
       </c>
@@ -6298,7 +6325,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>43920</v>
       </c>
@@ -6343,7 +6370,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>43920</v>
       </c>
@@ -6388,7 +6415,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>43920</v>
       </c>
@@ -6433,7 +6460,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>43920</v>
       </c>
@@ -6460,7 +6487,7 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>43921</v>
       </c>
@@ -6505,7 +6532,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>43921</v>
       </c>
@@ -6550,7 +6577,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>43921</v>
       </c>
@@ -6595,7 +6622,7 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>43921</v>
       </c>
@@ -6622,57 +6649,57 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43921</v>
       </c>
       <c r="B194" s="4">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="5">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E194" s="5">
         <v>258</v>
       </c>
       <c r="F194" s="5">
-        <v>1519</v>
+        <v>1502</v>
       </c>
       <c r="G194" s="5">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="H194" s="5">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="I194" s="5">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="J194" s="5">
-        <v>2068</v>
+        <v>2034</v>
       </c>
       <c r="K194" s="5">
         <v>597</v>
       </c>
       <c r="L194" s="5">
-        <v>1342</v>
+        <v>1315</v>
       </c>
       <c r="M194" s="5">
-        <v>8865</v>
+        <v>8751</v>
       </c>
       <c r="N194" s="2" t="str">
-        <f t="shared" ref="N194:N197" si="47">IF(SUM(D194:L194)=M194,"gleich","ungleich")</f>
+        <f t="shared" ref="N194:N201" si="47">IF(SUM(D194:L194)=M194,"gleich","ungleich")</f>
         <v>ungleich</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>43921</v>
       </c>
       <c r="B195" s="7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>14</v>
@@ -6712,12 +6739,12 @@
         <v>ungleich</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>43921</v>
       </c>
       <c r="B196" s="7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>15</v>
@@ -6757,12 +6784,12 @@
         <v>gleich</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>43921</v>
       </c>
       <c r="B197" s="7">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>16</v>
@@ -6784,9 +6811,267 @@
         <v>ungleich</v>
       </c>
     </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="5">
+        <v>172</v>
+      </c>
+      <c r="E198" s="5">
+        <v>263</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1523</v>
+      </c>
+      <c r="G198" s="5">
+        <v>1531</v>
+      </c>
+      <c r="H198" s="5">
+        <v>897</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1005</v>
+      </c>
+      <c r="J198" s="5">
+        <v>2072</v>
+      </c>
+      <c r="K198" s="5">
+        <v>610</v>
+      </c>
+      <c r="L198" s="5">
+        <v>1355</v>
+      </c>
+      <c r="M198" s="5">
+        <v>8969</v>
+      </c>
+      <c r="N198" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B199" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="1">
+        <v>10</v>
+      </c>
+      <c r="E199" s="1">
+        <v>13</v>
+      </c>
+      <c r="F199" s="1">
+        <v>86</v>
+      </c>
+      <c r="G199" s="1">
+        <v>101</v>
+      </c>
+      <c r="H199" s="1">
+        <v>43</v>
+      </c>
+      <c r="I199" s="1">
+        <v>28</v>
+      </c>
+      <c r="J199" s="1">
+        <v>270</v>
+      </c>
+      <c r="K199" s="1">
+        <v>47</v>
+      </c>
+      <c r="L199" s="1">
+        <v>38</v>
+      </c>
+      <c r="M199" s="13">
+        <v>1095</v>
+      </c>
+      <c r="N199" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>ungleich</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B200" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3</v>
+      </c>
+      <c r="E200" s="1">
+        <v>2</v>
+      </c>
+      <c r="F200" s="1">
+        <v>28</v>
+      </c>
+      <c r="G200" s="1">
+        <v>10</v>
+      </c>
+      <c r="H200" s="1">
+        <v>9</v>
+      </c>
+      <c r="I200" s="1">
+        <v>30</v>
+      </c>
+      <c r="J200" s="1">
+        <v>19</v>
+      </c>
+      <c r="K200" s="1">
+        <v>2</v>
+      </c>
+      <c r="L200" s="1">
+        <v>25</v>
+      </c>
+      <c r="M200" s="8">
+        <v>128</v>
+      </c>
+      <c r="N200" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B201" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="2" t="str">
+        <f t="shared" ref="N202:N205" si="48">IF(SUM(D202:L202)=M202,"gleich","ungleich")</f>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B203" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M203" s="13"/>
+      <c r="N203" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B204" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M204" s="8"/>
+      <c r="N204" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>gleich</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B205" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>gleich</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="N1:N149 N198:N1048576">
+  <autoFilter ref="A1:N173"/>
+  <conditionalFormatting sqref="N1:N149 N206:N1048576">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N150:N153">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"ungleich"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"gleich"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154:N157">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6794,7 +7079,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N153">
+  <conditionalFormatting sqref="N158:N161">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6802,7 +7087,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N154:N157">
+  <conditionalFormatting sqref="N162:N165">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6810,7 +7095,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N161">
+  <conditionalFormatting sqref="N166:N169">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6818,7 +7103,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162:N165">
+  <conditionalFormatting sqref="N170:N173">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6826,7 +7111,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N166:N169">
+  <conditionalFormatting sqref="N174:N177">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6834,7 +7119,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N170:N173">
+  <conditionalFormatting sqref="N178:N181">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6842,7 +7127,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N174:N177">
+  <conditionalFormatting sqref="N182:N185">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6850,7 +7135,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N178:N181">
+  <conditionalFormatting sqref="N186:N189">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6858,7 +7143,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N182:N185">
+  <conditionalFormatting sqref="N190:N193">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6866,7 +7151,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N186:N189">
+  <conditionalFormatting sqref="N194:N197">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6874,7 +7159,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N190:N193">
+  <conditionalFormatting sqref="N198:N201">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
@@ -6882,7 +7167,7 @@
       <formula>"gleich"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N194:N197">
+  <conditionalFormatting sqref="N202:N205">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ungleich"</formula>
     </cfRule>
